--- a/output/output-12月工时-1.xlsx
+++ b/output/output-12月工时-1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R89a02e92f14448c0a1912c02acc963bf"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Re9179977761e42528098582ee5690047"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -173,7 +173,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H2" t="str" s="2">
-        <x:v>2022-12-01 08:22:15</x:v>
+        <x:v>2022-12-01 08:20:06</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
@@ -199,7 +199,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H3" t="str" s="2">
-        <x:v>2022-12-01 20:55:11</x:v>
+        <x:v>2022-12-01 20:44:08</x:v>
       </x:c>
     </x:row>
     <x:row r="4">
@@ -225,7 +225,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H4" t="str" s="2">
-        <x:v>2022-12-02 08:21:51</x:v>
+        <x:v>2022-12-02 08:26:27</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -251,7 +251,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H5" t="str" s="2">
-        <x:v>2022-12-02 17:51:52</x:v>
+        <x:v>2022-12-02 17:35:28</x:v>
       </x:c>
     </x:row>
     <x:row r="6">
@@ -277,7 +277,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H6" t="str" s="2">
-        <x:v>2022-12-03 08:22:53</x:v>
+        <x:v>2022-12-03 08:23:13</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
@@ -303,7 +303,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H7" t="str" s="2">
-        <x:v>2022-12-03 20:56:31</x:v>
+        <x:v>2022-12-03 20:37:57</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
@@ -329,7 +329,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H8" t="str" s="2">
-        <x:v>2022-12-04 08:22:13</x:v>
+        <x:v>2022-12-04 08:28:20</x:v>
       </x:c>
     </x:row>
     <x:row r="9">
@@ -355,7 +355,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H9" t="str" s="2">
-        <x:v>2022-12-04 20:52:17</x:v>
+        <x:v>2022-12-04 20:32:18</x:v>
       </x:c>
     </x:row>
     <x:row r="10">
@@ -381,7 +381,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H10" t="str" s="2">
-        <x:v>2022-12-05 08:22:47</x:v>
+        <x:v>2022-12-05 08:28:58</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
@@ -407,7 +407,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H11" t="str" s="2">
-        <x:v>2022-12-05 17:57:35</x:v>
+        <x:v>2022-12-05 17:31:24</x:v>
       </x:c>
     </x:row>
     <x:row r="12">
@@ -433,7 +433,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H12" t="str" s="2">
-        <x:v>2022-12-06 08:21:17</x:v>
+        <x:v>2022-12-06 08:22:58</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
@@ -459,7 +459,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H13" t="str" s="2">
-        <x:v>2022-12-06 20:53:13</x:v>
+        <x:v>2022-12-06 20:36:01</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
@@ -485,7 +485,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H14" t="str" s="2">
-        <x:v>2022-12-07 08:21:32</x:v>
+        <x:v>2022-12-07 08:21:06</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
@@ -511,7 +511,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H15" t="str" s="2">
-        <x:v>2022-12-07 20:54:46</x:v>
+        <x:v>2022-12-07 20:39:07</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
@@ -537,7 +537,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H16" t="str" s="2">
-        <x:v>2022-12-08 08:24:48</x:v>
+        <x:v>2022-12-08 08:20:37</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
@@ -563,7 +563,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H17" t="str" s="2">
-        <x:v>2022-12-08 20:54:58</x:v>
+        <x:v>2022-12-08 20:43:53</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
@@ -589,7 +589,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H18" t="str" s="2">
-        <x:v>2022-12-09 08:20:39</x:v>
+        <x:v>2022-12-09 08:21:30</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
@@ -615,7 +615,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H19" t="str" s="2">
-        <x:v>2022-12-09 15:52:58</x:v>
+        <x:v>2022-12-09 17:02:51</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
@@ -641,7 +641,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H20" t="str" s="2">
-        <x:v>2022-12-10 08:24:11</x:v>
+        <x:v>2022-12-10 08:23:08</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
@@ -667,7 +667,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H21" t="str" s="2">
-        <x:v>2022-12-10 20:59:07</x:v>
+        <x:v>2022-12-10 20:35:37</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
@@ -693,7 +693,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H22" t="str" s="2">
-        <x:v>2022-12-12 08:22:56</x:v>
+        <x:v>2022-12-12 08:21:17</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
@@ -719,7 +719,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H23" t="str" s="2">
-        <x:v>2022-12-12 20:56:14</x:v>
+        <x:v>2022-12-12 20:35:58</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
@@ -745,7 +745,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H24" t="str" s="2">
-        <x:v>2022-12-13 08:24:14</x:v>
+        <x:v>2022-12-13 08:20:05</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
@@ -771,7 +771,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H25" t="str" s="2">
-        <x:v>2022-12-13 20:54:17</x:v>
+        <x:v>2022-12-13 20:37:12</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
@@ -797,7 +797,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H26" t="str" s="2">
-        <x:v>2022-12-14 08:25:48</x:v>
+        <x:v>2022-12-14 08:20:33</x:v>
       </x:c>
     </x:row>
     <x:row r="27">
@@ -823,7 +823,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H27" t="str" s="2">
-        <x:v>2022-12-14 20:59:22</x:v>
+        <x:v>2022-12-14 20:33:28</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
@@ -849,7 +849,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H28" t="str" s="2">
-        <x:v>2022-12-15 08:21:36</x:v>
+        <x:v>2022-12-15 08:25:30</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
@@ -875,7 +875,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H29" t="str" s="2">
-        <x:v>2022-12-15 20:51:42</x:v>
+        <x:v>2022-12-15 20:32:25</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
@@ -901,7 +901,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H30" t="str" s="2">
-        <x:v>2022-12-16 08:20:49</x:v>
+        <x:v>2022-12-16 08:22:39</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
@@ -927,7 +927,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H31" t="str" s="2">
-        <x:v>2022-12-16 20:54:56</x:v>
+        <x:v>2022-12-16 20:35:45</x:v>
       </x:c>
     </x:row>
     <x:row r="32">
@@ -953,7 +953,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H32" t="str" s="2">
-        <x:v>2022-12-17 08:23:33</x:v>
+        <x:v>2022-12-17 08:23:14</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
@@ -979,7 +979,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H33" t="str" s="2">
-        <x:v>2022-12-17 20:54:56</x:v>
+        <x:v>2022-12-17 20:44:21</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
@@ -1005,7 +1005,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H34" t="str" s="2">
-        <x:v>2022-12-19 08:28:05</x:v>
+        <x:v>2022-12-19 08:23:19</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
@@ -1031,7 +1031,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H35" t="str" s="2">
-        <x:v>2022-12-19 18:02:51</x:v>
+        <x:v>2022-12-19 17:33:36</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
@@ -1057,7 +1057,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H36" t="str" s="2">
-        <x:v>2022-12-20 08:24:24</x:v>
+        <x:v>2022-12-20 08:21:07</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
@@ -1083,7 +1083,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H37" t="str" s="2">
-        <x:v>2022-12-20 20:55:22</x:v>
+        <x:v>2022-12-20 20:35:30</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
@@ -1109,7 +1109,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H38" t="str" s="2">
-        <x:v>2022-12-21 08:28:18</x:v>
+        <x:v>2022-12-21 08:20:42</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
@@ -1135,7 +1135,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H39" t="str" s="2">
-        <x:v>2022-12-21 18:02:37</x:v>
+        <x:v>2022-12-21 17:32:11</x:v>
       </x:c>
     </x:row>
     <x:row r="40">
@@ -1161,7 +1161,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H40" t="str" s="2">
-        <x:v>2022-12-23 08:27:07</x:v>
+        <x:v>2022-12-23 08:22:40</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
@@ -1187,7 +1187,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H41" t="str" s="2">
-        <x:v>2022-12-23 17:57:31</x:v>
+        <x:v>2022-12-23 17:31:33</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
@@ -1213,7 +1213,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H42" t="str" s="2">
-        <x:v>2022-12-24 08:27:44</x:v>
+        <x:v>2022-12-24 08:22:02</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
@@ -1239,7 +1239,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H43" t="str" s="2">
-        <x:v>2022-12-24 18:00:30</x:v>
+        <x:v>2022-12-24 17:31:37</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
@@ -1265,7 +1265,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H44" t="str" s="2">
-        <x:v>2022-12-26 08:24:23</x:v>
+        <x:v>2022-12-26 08:20:43</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
@@ -1291,7 +1291,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H45" t="str" s="2">
-        <x:v>2022-12-26 20:58:51</x:v>
+        <x:v>2022-12-26 20:39:14</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
@@ -1317,7 +1317,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H46" t="str" s="2">
-        <x:v>2022-12-27 08:28:13</x:v>
+        <x:v>2022-12-27 08:21:19</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
@@ -1343,7 +1343,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H47" t="str" s="2">
-        <x:v>2022-12-27 21:02:34</x:v>
+        <x:v>2022-12-27 20:31:20</x:v>
       </x:c>
     </x:row>
     <x:row r="48">
@@ -1369,7 +1369,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H48" t="str" s="2">
-        <x:v>2022-12-28 08:21:10</x:v>
+        <x:v>2022-12-28 08:27:32</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
@@ -1395,7 +1395,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H49" t="str" s="2">
-        <x:v>2022-12-28 11:22:21</x:v>
+        <x:v>2022-12-28 11:27:35</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
@@ -1421,7 +1421,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H50" t="str" s="2">
-        <x:v>2022-12-30 08:27:21</x:v>
+        <x:v>2022-12-30 08:21:45</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
@@ -1447,7 +1447,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H51" t="str" s="2">
-        <x:v>2022-12-30 17:58:08</x:v>
+        <x:v>2022-12-30 17:35:31</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
@@ -1473,7 +1473,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H52" t="str" s="2">
-        <x:v>2022-12-31 08:24:02</x:v>
+        <x:v>2022-12-31 08:22:35</x:v>
       </x:c>
     </x:row>
     <x:row r="53">
@@ -1499,7 +1499,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H53" t="str" s="2">
-        <x:v>2022-12-31 13:57:47</x:v>
+        <x:v>2022-12-31 15:22:56</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
@@ -1525,7 +1525,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H54" t="str" s="2">
-        <x:v>2022-12-01 08:28:49</x:v>
+        <x:v>2022-12-01 08:23:58</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
@@ -1551,7 +1551,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H55" t="str" s="2">
-        <x:v>2022-12-01 21:00:36</x:v>
+        <x:v>2022-12-01 20:38:40</x:v>
       </x:c>
     </x:row>
     <x:row r="56">
@@ -1577,7 +1577,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H56" t="str" s="2">
-        <x:v>2022-12-02 08:24:03</x:v>
+        <x:v>2022-12-02 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="57">
@@ -1603,7 +1603,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H57" t="str" s="2">
-        <x:v>2022-12-02 17:57:29</x:v>
+        <x:v>2022-12-02 17:35:06</x:v>
       </x:c>
     </x:row>
     <x:row r="58">
@@ -1629,7 +1629,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H58" t="str" s="2">
-        <x:v>2022-12-03 08:23:32</x:v>
+        <x:v>2022-12-03 08:25:37</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
@@ -1655,7 +1655,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H59" t="str" s="2">
-        <x:v>2022-12-03 20:57:40</x:v>
+        <x:v>2022-12-03 20:44:01</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
@@ -1681,7 +1681,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H60" t="str" s="2">
-        <x:v>2022-12-04 08:27:02</x:v>
+        <x:v>2022-12-04 08:28:31</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
@@ -1707,7 +1707,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H61" t="str" s="2">
-        <x:v>2022-12-04 20:58:50</x:v>
+        <x:v>2022-12-04 20:40:51</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
@@ -1733,7 +1733,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H62" t="str" s="2">
-        <x:v>2022-12-05 08:23:43</x:v>
+        <x:v>2022-12-05 08:26:38</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
@@ -1759,7 +1759,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H63" t="str" s="2">
-        <x:v>2022-12-05 17:54:36</x:v>
+        <x:v>2022-12-05 17:31:35</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
@@ -1785,7 +1785,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H64" t="str" s="2">
-        <x:v>2022-12-06 08:20:00</x:v>
+        <x:v>2022-12-06 08:22:30</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
@@ -1811,7 +1811,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H65" t="str" s="2">
-        <x:v>2022-12-06 20:52:33</x:v>
+        <x:v>2022-12-06 20:36:28</x:v>
       </x:c>
     </x:row>
     <x:row r="66">
@@ -1837,7 +1837,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H66" t="str" s="2">
-        <x:v>2022-12-07 08:20:07</x:v>
+        <x:v>2022-12-07 08:24:56</x:v>
       </x:c>
     </x:row>
     <x:row r="67">
@@ -1863,7 +1863,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H67" t="str" s="2">
-        <x:v>2022-12-07 20:53:08</x:v>
+        <x:v>2022-12-07 20:34:46</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
@@ -1889,7 +1889,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H68" t="str" s="2">
-        <x:v>2022-12-08 08:23:18</x:v>
+        <x:v>2022-12-08 08:24:15</x:v>
       </x:c>
     </x:row>
     <x:row r="69">
@@ -1915,7 +1915,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H69" t="str" s="2">
-        <x:v>2022-12-08 20:54:14</x:v>
+        <x:v>2022-12-08 20:34:31</x:v>
       </x:c>
     </x:row>
     <x:row r="70">
@@ -1941,7 +1941,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H70" t="str" s="2">
-        <x:v>2022-12-09 08:21:18</x:v>
+        <x:v>2022-12-09 08:27:52</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
@@ -1967,7 +1967,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H71" t="str" s="2">
-        <x:v>2022-12-09 17:55:26</x:v>
+        <x:v>2022-12-09 17:33:33</x:v>
       </x:c>
     </x:row>
     <x:row r="72">
@@ -1993,7 +1993,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H72" t="str" s="2">
-        <x:v>2022-12-10 08:28:18</x:v>
+        <x:v>2022-12-10 08:28:47</x:v>
       </x:c>
     </x:row>
     <x:row r="73">
@@ -2019,7 +2019,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H73" t="str" s="2">
-        <x:v>2022-12-10 21:00:40</x:v>
+        <x:v>2022-12-10 20:38:51</x:v>
       </x:c>
     </x:row>
     <x:row r="74">
@@ -2045,7 +2045,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H74" t="str" s="2">
-        <x:v>2022-12-12 08:22:15</x:v>
+        <x:v>2022-12-12 08:24:05</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
@@ -2071,7 +2071,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H75" t="str" s="2">
-        <x:v>2022-12-12 20:56:18</x:v>
+        <x:v>2022-12-12 20:32:13</x:v>
       </x:c>
     </x:row>
     <x:row r="76">
@@ -2097,7 +2097,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H76" t="str" s="2">
-        <x:v>2022-12-13 08:23:22</x:v>
+        <x:v>2022-12-13 08:22:40</x:v>
       </x:c>
     </x:row>
     <x:row r="77">
@@ -2123,7 +2123,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H77" t="str" s="2">
-        <x:v>2022-12-13 20:54:15</x:v>
+        <x:v>2022-12-13 20:32:21</x:v>
       </x:c>
     </x:row>
     <x:row r="78">
@@ -2149,7 +2149,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H78" t="str" s="2">
-        <x:v>2022-12-14 08:20:48</x:v>
+        <x:v>2022-12-14 08:24:20</x:v>
       </x:c>
     </x:row>
     <x:row r="79">
@@ -2175,7 +2175,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H79" t="str" s="2">
-        <x:v>2022-12-14 20:55:45</x:v>
+        <x:v>2022-12-14 20:43:47</x:v>
       </x:c>
     </x:row>
     <x:row r="80">
@@ -2201,7 +2201,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H80" t="str" s="2">
-        <x:v>2022-12-15 08:25:19</x:v>
+        <x:v>2022-12-15 08:22:16</x:v>
       </x:c>
     </x:row>
     <x:row r="81">
@@ -2227,7 +2227,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H81" t="str" s="2">
-        <x:v>2022-12-15 20:56:50</x:v>
+        <x:v>2022-12-15 20:41:43</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
@@ -2253,7 +2253,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H82" t="str" s="2">
-        <x:v>2022-12-16 08:22:01</x:v>
+        <x:v>2022-12-16 08:22:34</x:v>
       </x:c>
     </x:row>
     <x:row r="83">
@@ -2279,7 +2279,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H83" t="str" s="2">
-        <x:v>2022-12-16 20:55:13</x:v>
+        <x:v>2022-12-16 20:37:14</x:v>
       </x:c>
     </x:row>
     <x:row r="84">
@@ -2305,7 +2305,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H84" t="str" s="2">
-        <x:v>2022-12-17 08:23:56</x:v>
+        <x:v>2022-12-17 08:28:23</x:v>
       </x:c>
     </x:row>
     <x:row r="85">
@@ -2331,7 +2331,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H85" t="str" s="2">
-        <x:v>2022-12-17 20:54:26</x:v>
+        <x:v>2022-12-17 20:40:11</x:v>
       </x:c>
     </x:row>
     <x:row r="86">
@@ -2357,7 +2357,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H86" t="str" s="2">
-        <x:v>2022-12-19 08:28:36</x:v>
+        <x:v>2022-12-19 08:27:42</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
@@ -2383,7 +2383,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H87" t="str" s="2">
-        <x:v>2022-12-19 21:02:49</x:v>
+        <x:v>2022-12-19 20:34:39</x:v>
       </x:c>
     </x:row>
     <x:row r="88">
@@ -2409,7 +2409,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H88" t="str" s="2">
-        <x:v>2022-12-20 08:25:38</x:v>
+        <x:v>2022-12-20 08:21:39</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
@@ -2435,7 +2435,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H89" t="str" s="2">
-        <x:v>2022-12-20 21:00:36</x:v>
+        <x:v>2022-12-20 20:36:38</x:v>
       </x:c>
     </x:row>
     <x:row r="90">
@@ -2461,7 +2461,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H90" t="str" s="2">
-        <x:v>2022-12-21 08:21:37</x:v>
+        <x:v>2022-12-21 08:22:17</x:v>
       </x:c>
     </x:row>
     <x:row r="91">
@@ -2487,7 +2487,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H91" t="str" s="2">
-        <x:v>2022-12-21 17:53:01</x:v>
+        <x:v>2022-12-21 17:31:05</x:v>
       </x:c>
     </x:row>
     <x:row r="92">
@@ -2513,7 +2513,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H92" t="str" s="2">
-        <x:v>2022-12-23 08:26:17</x:v>
+        <x:v>2022-12-23 08:24:11</x:v>
       </x:c>
     </x:row>
     <x:row r="93">
@@ -2539,7 +2539,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H93" t="str" s="2">
-        <x:v>2022-12-23 18:00:05</x:v>
+        <x:v>2022-12-23 17:31:05</x:v>
       </x:c>
     </x:row>
     <x:row r="94">
@@ -2565,7 +2565,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H94" t="str" s="2">
-        <x:v>2022-12-24 08:28:51</x:v>
+        <x:v>2022-12-24 08:23:34</x:v>
       </x:c>
     </x:row>
     <x:row r="95">
@@ -2591,7 +2591,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H95" t="str" s="2">
-        <x:v>2022-12-24 18:00:51</x:v>
+        <x:v>2022-12-24 17:35:27</x:v>
       </x:c>
     </x:row>
     <x:row r="96">
@@ -2617,7 +2617,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H96" t="str" s="2">
-        <x:v>2022-12-26 08:25:53</x:v>
+        <x:v>2022-12-26 08:28:36</x:v>
       </x:c>
     </x:row>
     <x:row r="97">
@@ -2643,7 +2643,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H97" t="str" s="2">
-        <x:v>2022-12-26 20:56:48</x:v>
+        <x:v>2022-12-26 20:40:07</x:v>
       </x:c>
     </x:row>
     <x:row r="98">
@@ -2669,7 +2669,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H98" t="str" s="2">
-        <x:v>2022-12-27 08:27:33</x:v>
+        <x:v>2022-12-27 08:22:24</x:v>
       </x:c>
     </x:row>
     <x:row r="99">
@@ -2695,7 +2695,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H99" t="str" s="2">
-        <x:v>2022-12-27 21:01:19</x:v>
+        <x:v>2022-12-27 20:37:49</x:v>
       </x:c>
     </x:row>
     <x:row r="100">
@@ -2721,7 +2721,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H100" t="str" s="2">
-        <x:v>2022-12-28 08:27:25</x:v>
+        <x:v>2022-12-28 08:28:28</x:v>
       </x:c>
     </x:row>
     <x:row r="101">
@@ -2747,7 +2747,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H101" t="str" s="2">
-        <x:v>2022-12-28 11:31:03</x:v>
+        <x:v>2022-12-28 11:29:53</x:v>
       </x:c>
     </x:row>
     <x:row r="102">
@@ -2773,7 +2773,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H102" t="str" s="2">
-        <x:v>2022-12-31 08:28:15</x:v>
+        <x:v>2022-12-31 08:25:06</x:v>
       </x:c>
     </x:row>
     <x:row r="103">
@@ -2799,7 +2799,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H103" t="str" s="2">
-        <x:v>2022-12-31 13:58:49</x:v>
+        <x:v>2022-12-31 15:26:35</x:v>
       </x:c>
     </x:row>
     <x:row r="104">
@@ -2825,7 +2825,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H104" t="str" s="2">
-        <x:v>2022-12-02 08:24:48</x:v>
+        <x:v>2022-12-02 08:24:05</x:v>
       </x:c>
     </x:row>
     <x:row r="105">
@@ -2851,7 +2851,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H105" t="str" s="2">
-        <x:v>2022-12-02 17:58:41</x:v>
+        <x:v>2022-12-02 17:33:38</x:v>
       </x:c>
     </x:row>
     <x:row r="106">
@@ -2877,7 +2877,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H106" t="str" s="2">
-        <x:v>2022-12-03 08:28:56</x:v>
+        <x:v>2022-12-03 08:26:32</x:v>
       </x:c>
     </x:row>
     <x:row r="107">
@@ -2903,7 +2903,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H107" t="str" s="2">
-        <x:v>2022-12-03 21:02:47</x:v>
+        <x:v>2022-12-03 20:31:06</x:v>
       </x:c>
     </x:row>
     <x:row r="108">
@@ -2929,7 +2929,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H108" t="str" s="2">
-        <x:v>2022-12-05 08:25:05</x:v>
+        <x:v>2022-12-05 08:21:40</x:v>
       </x:c>
     </x:row>
     <x:row r="109">
@@ -2955,7 +2955,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H109" t="str" s="2">
-        <x:v>2022-12-05 17:55:47</x:v>
+        <x:v>2022-12-05 17:34:34</x:v>
       </x:c>
     </x:row>
     <x:row r="110">
@@ -2981,7 +2981,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H110" t="str" s="2">
-        <x:v>2022-12-06 08:20:19</x:v>
+        <x:v>2022-12-06 08:22:12</x:v>
       </x:c>
     </x:row>
     <x:row r="111">
@@ -3007,7 +3007,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H111" t="str" s="2">
-        <x:v>2022-12-06 20:53:20</x:v>
+        <x:v>2022-12-06 20:41:07</x:v>
       </x:c>
     </x:row>
     <x:row r="112">
@@ -3033,7 +3033,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H112" t="str" s="2">
-        <x:v>2022-12-07 08:24:42</x:v>
+        <x:v>2022-12-07 08:21:36</x:v>
       </x:c>
     </x:row>
     <x:row r="113">
@@ -3059,7 +3059,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H113" t="str" s="2">
-        <x:v>2022-12-07 17:56:03</x:v>
+        <x:v>2022-12-07 17:32:09</x:v>
       </x:c>
     </x:row>
     <x:row r="114">
@@ -3085,7 +3085,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H114" t="str" s="2">
-        <x:v>2022-12-08 08:21:10</x:v>
+        <x:v>2022-12-08 08:21:19</x:v>
       </x:c>
     </x:row>
     <x:row r="115">
@@ -3111,7 +3111,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H115" t="str" s="2">
-        <x:v>2022-12-08 20:55:55</x:v>
+        <x:v>2022-12-08 20:39:19</x:v>
       </x:c>
     </x:row>
     <x:row r="116">
@@ -3137,7 +3137,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H116" t="str" s="2">
-        <x:v>2022-12-09 08:25:04</x:v>
+        <x:v>2022-12-09 08:28:21</x:v>
       </x:c>
     </x:row>
     <x:row r="117">
@@ -3163,7 +3163,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H117" t="str" s="2">
-        <x:v>2022-12-09 17:59:04</x:v>
+        <x:v>2022-12-09 17:31:16</x:v>
       </x:c>
     </x:row>
     <x:row r="118">
@@ -3189,7 +3189,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H118" t="str" s="2">
-        <x:v>2022-12-10 08:27:30</x:v>
+        <x:v>2022-12-10 08:23:20</x:v>
       </x:c>
     </x:row>
     <x:row r="119">
@@ -3215,7 +3215,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H119" t="str" s="2">
-        <x:v>2022-12-10 20:58:38</x:v>
+        <x:v>2022-12-10 20:34:20</x:v>
       </x:c>
     </x:row>
     <x:row r="120">
@@ -3241,7 +3241,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H120" t="str" s="2">
-        <x:v>2022-12-12 08:26:25</x:v>
+        <x:v>2022-12-12 08:22:14</x:v>
       </x:c>
     </x:row>
     <x:row r="121">
@@ -3267,7 +3267,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H121" t="str" s="2">
-        <x:v>2022-12-12 17:59:34</x:v>
+        <x:v>2022-12-12 17:32:07</x:v>
       </x:c>
     </x:row>
     <x:row r="122">
@@ -3293,7 +3293,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H122" t="str" s="2">
-        <x:v>2022-12-13 08:27:27</x:v>
+        <x:v>2022-12-13 08:24:32</x:v>
       </x:c>
     </x:row>
     <x:row r="123">
@@ -3319,7 +3319,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H123" t="str" s="2">
-        <x:v>2022-12-13 21:02:09</x:v>
+        <x:v>2022-12-13 20:33:08</x:v>
       </x:c>
     </x:row>
     <x:row r="124">
@@ -3345,7 +3345,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H124" t="str" s="2">
-        <x:v>2022-12-14 08:28:03</x:v>
+        <x:v>2022-12-14 08:20:11</x:v>
       </x:c>
     </x:row>
     <x:row r="125">
@@ -3371,7 +3371,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H125" t="str" s="2">
-        <x:v>2022-12-14 17:58:19</x:v>
+        <x:v>2022-12-14 17:35:13</x:v>
       </x:c>
     </x:row>
     <x:row r="126">
@@ -3397,7 +3397,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H126" t="str" s="2">
-        <x:v>2022-12-15 08:24:58</x:v>
+        <x:v>2022-12-15 08:26:39</x:v>
       </x:c>
     </x:row>
     <x:row r="127">
@@ -3423,7 +3423,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H127" t="str" s="2">
-        <x:v>2022-12-15 17:56:58</x:v>
+        <x:v>2022-12-15 17:34:02</x:v>
       </x:c>
     </x:row>
     <x:row r="128">
@@ -3449,7 +3449,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H128" t="str" s="2">
-        <x:v>2022-12-16 08:22:29</x:v>
+        <x:v>2022-12-16 08:28:50</x:v>
       </x:c>
     </x:row>
     <x:row r="129">
@@ -3475,7 +3475,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H129" t="str" s="2">
-        <x:v>2022-12-16 17:54:25</x:v>
+        <x:v>2022-12-16 17:35:13</x:v>
       </x:c>
     </x:row>
     <x:row r="130">
@@ -3501,7 +3501,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H130" t="str" s="2">
-        <x:v>2022-12-17 08:23:26</x:v>
+        <x:v>2022-12-17 08:27:42</x:v>
       </x:c>
     </x:row>
     <x:row r="131">
@@ -3527,7 +3527,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H131" t="str" s="2">
-        <x:v>2022-12-17 17:57:39</x:v>
+        <x:v>2022-12-17 17:34:29</x:v>
       </x:c>
     </x:row>
     <x:row r="132">
@@ -3553,7 +3553,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H132" t="str" s="2">
-        <x:v>2022-12-19 08:24:16</x:v>
+        <x:v>2022-12-19 08:24:27</x:v>
       </x:c>
     </x:row>
     <x:row r="133">
@@ -3579,7 +3579,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H133" t="str" s="2">
-        <x:v>2022-12-19 20:59:03</x:v>
+        <x:v>2022-12-19 20:34:45</x:v>
       </x:c>
     </x:row>
     <x:row r="134">
@@ -3605,7 +3605,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H134" t="str" s="2">
-        <x:v>2022-12-20 08:23:10</x:v>
+        <x:v>2022-12-20 08:28:44</x:v>
       </x:c>
     </x:row>
     <x:row r="135">
@@ -3631,7 +3631,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H135" t="str" s="2">
-        <x:v>2022-12-20 20:55:35</x:v>
+        <x:v>2022-12-20 20:35:29</x:v>
       </x:c>
     </x:row>
     <x:row r="136">
@@ -3657,7 +3657,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H136" t="str" s="2">
-        <x:v>2022-12-21 08:24:37</x:v>
+        <x:v>2022-12-21 08:20:31</x:v>
       </x:c>
     </x:row>
     <x:row r="137">
@@ -3683,7 +3683,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H137" t="str" s="2">
-        <x:v>2022-12-21 17:57:12</x:v>
+        <x:v>2022-12-21 17:35:34</x:v>
       </x:c>
     </x:row>
     <x:row r="138">
@@ -3709,7 +3709,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H138" t="str" s="2">
-        <x:v>2022-12-24 08:22:43</x:v>
+        <x:v>2022-12-24 08:21:05</x:v>
       </x:c>
     </x:row>
     <x:row r="139">
@@ -3735,7 +3735,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H139" t="str" s="2">
-        <x:v>2022-12-24 17:54:53</x:v>
+        <x:v>2022-12-24 17:34:31</x:v>
       </x:c>
     </x:row>
     <x:row r="140">
@@ -3761,7 +3761,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H140" t="str" s="2">
-        <x:v>2022-12-26 08:24:27</x:v>
+        <x:v>2022-12-26 08:25:57</x:v>
       </x:c>
     </x:row>
     <x:row r="141">
@@ -3787,7 +3787,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H141" t="str" s="2">
-        <x:v>2022-12-26 20:58:36</x:v>
+        <x:v>2022-12-26 20:43:07</x:v>
       </x:c>
     </x:row>
     <x:row r="142">
@@ -3813,7 +3813,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H142" t="str" s="2">
-        <x:v>2022-12-27 08:21:17</x:v>
+        <x:v>2022-12-27 08:25:08</x:v>
       </x:c>
     </x:row>
     <x:row r="143">
@@ -3839,7 +3839,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H143" t="str" s="2">
-        <x:v>2022-12-27 20:55:46</x:v>
+        <x:v>2022-12-27 20:35:41</x:v>
       </x:c>
     </x:row>
     <x:row r="144">
@@ -3865,7 +3865,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H144" t="str" s="2">
-        <x:v>2022-12-28 08:21:25</x:v>
+        <x:v>2022-12-28 08:24:02</x:v>
       </x:c>
     </x:row>
     <x:row r="145">
@@ -3891,7 +3891,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H145" t="str" s="2">
-        <x:v>2022-12-28 11:23:05</x:v>
+        <x:v>2022-12-28 11:24:22</x:v>
       </x:c>
     </x:row>
     <x:row r="146">
@@ -3917,7 +3917,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H146" t="str" s="2">
-        <x:v>2022-12-31 08:26:25</x:v>
+        <x:v>2022-12-31 08:22:25</x:v>
       </x:c>
     </x:row>
     <x:row r="147">
@@ -3943,7 +3943,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H147" t="str" s="2">
-        <x:v>2022-12-31 13:59:25</x:v>
+        <x:v>2022-12-31 15:23:30</x:v>
       </x:c>
     </x:row>
     <x:row r="148">
@@ -3969,7 +3969,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H148" t="str" s="2">
-        <x:v>2022-12-02 08:28:55</x:v>
+        <x:v>2022-12-02 08:25:47</x:v>
       </x:c>
     </x:row>
     <x:row r="149">
@@ -3995,7 +3995,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H149" t="str" s="2">
-        <x:v>2022-12-02 17:59:38</x:v>
+        <x:v>2022-12-02 17:35:10</x:v>
       </x:c>
     </x:row>
     <x:row r="150">
@@ -4021,7 +4021,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H150" t="str" s="2">
-        <x:v>2022-12-03 08:27:48</x:v>
+        <x:v>2022-12-03 08:23:13</x:v>
       </x:c>
     </x:row>
     <x:row r="151">
@@ -4047,7 +4047,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H151" t="str" s="2">
-        <x:v>2022-12-03 21:02:20</x:v>
+        <x:v>2022-12-03 20:41:15</x:v>
       </x:c>
     </x:row>
     <x:row r="152">
@@ -4073,7 +4073,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H152" t="str" s="2">
-        <x:v>2022-12-05 08:28:23</x:v>
+        <x:v>2022-12-05 08:25:53</x:v>
       </x:c>
     </x:row>
     <x:row r="153">
@@ -4099,7 +4099,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H153" t="str" s="2">
-        <x:v>2022-12-05 18:02:31</x:v>
+        <x:v>2022-12-05 17:31:33</x:v>
       </x:c>
     </x:row>
     <x:row r="154">
@@ -4125,7 +4125,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H154" t="str" s="2">
-        <x:v>2022-12-06 08:20:14</x:v>
+        <x:v>2022-12-06 08:21:03</x:v>
       </x:c>
     </x:row>
     <x:row r="155">
@@ -4151,7 +4151,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H155" t="str" s="2">
-        <x:v>2022-12-06 20:52:02</x:v>
+        <x:v>2022-12-06 20:44:50</x:v>
       </x:c>
     </x:row>
     <x:row r="156">
@@ -4177,7 +4177,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H156" t="str" s="2">
-        <x:v>2022-12-07 08:26:26</x:v>
+        <x:v>2022-12-07 08:26:43</x:v>
       </x:c>
     </x:row>
     <x:row r="157">
@@ -4203,7 +4203,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H157" t="str" s="2">
-        <x:v>2022-12-07 17:58:19</x:v>
+        <x:v>2022-12-07 17:33:15</x:v>
       </x:c>
     </x:row>
     <x:row r="158">
@@ -4229,7 +4229,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H158" t="str" s="2">
-        <x:v>2022-12-08 08:20:25</x:v>
+        <x:v>2022-12-08 08:25:32</x:v>
       </x:c>
     </x:row>
     <x:row r="159">
@@ -4255,7 +4255,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H159" t="str" s="2">
-        <x:v>2022-12-08 20:50:59</x:v>
+        <x:v>2022-12-08 20:39:01</x:v>
       </x:c>
     </x:row>
     <x:row r="160">
@@ -4281,7 +4281,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H160" t="str" s="2">
-        <x:v>2022-12-09 08:24:45</x:v>
+        <x:v>2022-12-09 08:27:17</x:v>
       </x:c>
     </x:row>
     <x:row r="161">
@@ -4307,7 +4307,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H161" t="str" s="2">
-        <x:v>2022-12-09 17:58:17</x:v>
+        <x:v>2022-12-09 17:34:20</x:v>
       </x:c>
     </x:row>
     <x:row r="162">
@@ -4333,7 +4333,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H162" t="str" s="2">
-        <x:v>2022-12-10 08:26:54</x:v>
+        <x:v>2022-12-10 08:25:15</x:v>
       </x:c>
     </x:row>
     <x:row r="163">
@@ -4359,7 +4359,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H163" t="str" s="2">
-        <x:v>2022-12-10 20:58:14</x:v>
+        <x:v>2022-12-10 20:31:30</x:v>
       </x:c>
     </x:row>
     <x:row r="164">
@@ -4385,7 +4385,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H164" t="str" s="2">
-        <x:v>2022-12-12 08:27:04</x:v>
+        <x:v>2022-12-12 08:20:49</x:v>
       </x:c>
     </x:row>
     <x:row r="165">
@@ -4411,7 +4411,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H165" t="str" s="2">
-        <x:v>2022-12-12 18:00:39</x:v>
+        <x:v>2022-12-12 17:31:17</x:v>
       </x:c>
     </x:row>
     <x:row r="166">
@@ -4437,7 +4437,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H166" t="str" s="2">
-        <x:v>2022-12-13 08:23:42</x:v>
+        <x:v>2022-12-13 08:23:09</x:v>
       </x:c>
     </x:row>
     <x:row r="167">
@@ -4463,7 +4463,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H167" t="str" s="2">
-        <x:v>2022-12-13 20:57:21</x:v>
+        <x:v>2022-12-13 20:35:19</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
@@ -4489,7 +4489,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H168" t="str" s="2">
-        <x:v>2022-12-14 08:24:07</x:v>
+        <x:v>2022-12-14 08:24:27</x:v>
       </x:c>
     </x:row>
     <x:row r="169">
@@ -4515,7 +4515,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H169" t="str" s="2">
-        <x:v>2022-12-14 20:55:11</x:v>
+        <x:v>2022-12-14 20:31:08</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
@@ -4541,7 +4541,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H170" t="str" s="2">
-        <x:v>2022-12-15 08:25:39</x:v>
+        <x:v>2022-12-15 08:20:29</x:v>
       </x:c>
     </x:row>
     <x:row r="171">
@@ -4567,7 +4567,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H171" t="str" s="2">
-        <x:v>2022-12-15 20:58:53</x:v>
+        <x:v>2022-12-15 20:40:08</x:v>
       </x:c>
     </x:row>
     <x:row r="172">
@@ -4593,7 +4593,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H172" t="str" s="2">
-        <x:v>2022-12-16 08:24:54</x:v>
+        <x:v>2022-12-16 08:25:38</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
@@ -4619,7 +4619,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H173" t="str" s="2">
-        <x:v>2022-12-16 17:56:22</x:v>
+        <x:v>2022-12-16 17:32:22</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
@@ -4645,7 +4645,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H174" t="str" s="2">
-        <x:v>2022-12-17 08:27:34</x:v>
+        <x:v>2022-12-17 08:20:33</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
@@ -4671,7 +4671,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H175" t="str" s="2">
-        <x:v>2022-12-17 17:59:01</x:v>
+        <x:v>2022-12-17 17:34:14</x:v>
       </x:c>
     </x:row>
     <x:row r="176">
@@ -4697,7 +4697,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H176" t="str" s="2">
-        <x:v>2022-12-19 08:23:25</x:v>
+        <x:v>2022-12-19 08:28:32</x:v>
       </x:c>
     </x:row>
     <x:row r="177">
@@ -4723,7 +4723,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H177" t="str" s="2">
-        <x:v>2022-12-19 20:53:47</x:v>
+        <x:v>2022-12-19 20:33:59</x:v>
       </x:c>
     </x:row>
     <x:row r="178">
@@ -4749,7 +4749,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H178" t="str" s="2">
-        <x:v>2022-12-20 08:25:38</x:v>
+        <x:v>2022-12-20 08:24:38</x:v>
       </x:c>
     </x:row>
     <x:row r="179">
@@ -4775,7 +4775,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H179" t="str" s="2">
-        <x:v>2022-12-20 20:59:17</x:v>
+        <x:v>2022-12-20 20:44:29</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
@@ -4801,7 +4801,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H180" t="str" s="2">
-        <x:v>2022-12-21 08:25:53</x:v>
+        <x:v>2022-12-21 08:22:40</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
@@ -4827,7 +4827,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H181" t="str" s="2">
-        <x:v>2022-12-21 17:56:22</x:v>
+        <x:v>2022-12-21 17:32:31</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
@@ -4853,7 +4853,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H182" t="str" s="2">
-        <x:v>2022-12-24 08:25:51</x:v>
+        <x:v>2022-12-24 08:20:58</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
@@ -4879,7 +4879,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H183" t="str" s="2">
-        <x:v>2022-12-24 17:57:43</x:v>
+        <x:v>2022-12-24 17:35:10</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
@@ -4905,7 +4905,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H184" t="str" s="2">
-        <x:v>2022-12-26 08:25:17</x:v>
+        <x:v>2022-12-26 08:23:40</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
@@ -4931,7 +4931,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H185" t="str" s="2">
-        <x:v>2022-12-26 20:56:41</x:v>
+        <x:v>2022-12-26 20:43:57</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
@@ -4957,7 +4957,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H186" t="str" s="2">
-        <x:v>2022-12-27 08:23:30</x:v>
+        <x:v>2022-12-27 08:25:06</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
@@ -4983,7 +4983,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H187" t="str" s="2">
-        <x:v>2022-12-27 20:53:34</x:v>
+        <x:v>2022-12-27 20:34:48</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
@@ -5009,7 +5009,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H188" t="str" s="2">
-        <x:v>2022-12-28 08:27:17</x:v>
+        <x:v>2022-12-28 08:25:20</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
@@ -5035,7 +5035,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H189" t="str" s="2">
-        <x:v>2022-12-28 11:27:19</x:v>
+        <x:v>2022-12-28 11:25:42</x:v>
       </x:c>
     </x:row>
     <x:row r="190">
@@ -5061,7 +5061,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H190" t="str" s="2">
-        <x:v>2022-12-30 08:21:13</x:v>
+        <x:v>2022-12-30 08:27:18</x:v>
       </x:c>
     </x:row>
     <x:row r="191">
@@ -5087,7 +5087,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H191" t="str" s="2">
-        <x:v>2022-12-30 17:52:50</x:v>
+        <x:v>2022-12-30 17:35:05</x:v>
       </x:c>
     </x:row>
     <x:row r="192">
@@ -5113,7 +5113,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H192" t="str" s="2">
-        <x:v>2022-12-31 08:28:25</x:v>
+        <x:v>2022-12-31 08:23:36</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
@@ -5139,7 +5139,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H193" t="str" s="2">
-        <x:v>2022-12-31 14:01:09</x:v>
+        <x:v>2022-12-31 15:24:53</x:v>
       </x:c>
     </x:row>
     <x:row r="194">
@@ -5165,7 +5165,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H194" t="str" s="2">
-        <x:v>2022-12-01 08:22:53</x:v>
+        <x:v>2022-12-01 08:28:43</x:v>
       </x:c>
     </x:row>
     <x:row r="195">
@@ -5191,7 +5191,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H195" t="str" s="2">
-        <x:v>2022-12-01 20:56:31</x:v>
+        <x:v>2022-12-01 20:39:55</x:v>
       </x:c>
     </x:row>
     <x:row r="196">
@@ -5217,7 +5217,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H196" t="str" s="2">
-        <x:v>2022-12-02 08:25:50</x:v>
+        <x:v>2022-12-02 08:27:29</x:v>
       </x:c>
     </x:row>
     <x:row r="197">
@@ -5243,7 +5243,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H197" t="str" s="2">
-        <x:v>2022-12-02 17:56:28</x:v>
+        <x:v>2022-12-02 17:34:14</x:v>
       </x:c>
     </x:row>
     <x:row r="198">
@@ -5269,7 +5269,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H198" t="str" s="2">
-        <x:v>2022-12-04 08:28:13</x:v>
+        <x:v>2022-12-04 08:24:43</x:v>
       </x:c>
     </x:row>
     <x:row r="199">
@@ -5295,7 +5295,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H199" t="str" s="2">
-        <x:v>2022-12-04 21:01:23</x:v>
+        <x:v>2022-12-04 20:32:50</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
@@ -5321,7 +5321,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H200" t="str" s="2">
-        <x:v>2022-12-05 08:22:33</x:v>
+        <x:v>2022-12-05 08:26:48</x:v>
       </x:c>
     </x:row>
     <x:row r="201">
@@ -5347,7 +5347,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H201" t="str" s="2">
-        <x:v>2022-12-05 17:52:58</x:v>
+        <x:v>2022-12-05 17:33:23</x:v>
       </x:c>
     </x:row>
     <x:row r="202">
@@ -5373,7 +5373,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H202" t="str" s="2">
-        <x:v>2022-12-06 08:23:55</x:v>
+        <x:v>2022-12-06 08:28:49</x:v>
       </x:c>
     </x:row>
     <x:row r="203">
@@ -5399,7 +5399,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H203" t="str" s="2">
-        <x:v>2022-12-06 17:57:27</x:v>
+        <x:v>2022-12-06 17:32:33</x:v>
       </x:c>
     </x:row>
     <x:row r="204">
@@ -5425,7 +5425,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H204" t="str" s="2">
-        <x:v>2022-12-07 08:26:26</x:v>
+        <x:v>2022-12-07 08:21:45</x:v>
       </x:c>
     </x:row>
     <x:row r="205">
@@ -5451,7 +5451,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H205" t="str" s="2">
-        <x:v>2022-12-07 20:56:47</x:v>
+        <x:v>2022-12-07 20:37:18</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
@@ -5477,7 +5477,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H206" t="str" s="2">
-        <x:v>2022-12-08 08:25:21</x:v>
+        <x:v>2022-12-08 08:28:02</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
@@ -5503,7 +5503,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H207" t="str" s="2">
-        <x:v>2022-12-08 21:00:16</x:v>
+        <x:v>2022-12-08 20:31:02</x:v>
       </x:c>
     </x:row>
     <x:row r="208">
@@ -5529,7 +5529,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H208" t="str" s="2">
-        <x:v>2022-12-09 08:24:50</x:v>
+        <x:v>2022-12-09 08:25:47</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
@@ -5555,7 +5555,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H209" t="str" s="2">
-        <x:v>2022-12-09 17:59:09</x:v>
+        <x:v>2022-12-09 17:35:16</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
@@ -5581,7 +5581,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H210" t="str" s="2">
-        <x:v>2022-12-10 08:24:34</x:v>
+        <x:v>2022-12-10 08:22:16</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
@@ -5607,7 +5607,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H211" t="str" s="2">
-        <x:v>2022-12-10 20:54:49</x:v>
+        <x:v>2022-12-10 20:37:34</x:v>
       </x:c>
     </x:row>
     <x:row r="212">
@@ -5633,7 +5633,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H212" t="str" s="2">
-        <x:v>2022-12-12 08:21:55</x:v>
+        <x:v>2022-12-12 08:26:30</x:v>
       </x:c>
     </x:row>
     <x:row r="213">
@@ -5659,7 +5659,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H213" t="str" s="2">
-        <x:v>2022-12-12 17:52:04</x:v>
+        <x:v>2022-12-12 17:35:37</x:v>
       </x:c>
     </x:row>
     <x:row r="214">
@@ -5685,7 +5685,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H214" t="str" s="2">
-        <x:v>2022-12-14 08:20:19</x:v>
+        <x:v>2022-12-14 08:20:23</x:v>
       </x:c>
     </x:row>
     <x:row r="215">
@@ -5711,7 +5711,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H215" t="str" s="2">
-        <x:v>2022-12-14 20:54:06</x:v>
+        <x:v>2022-12-14 20:35:43</x:v>
       </x:c>
     </x:row>
     <x:row r="216">
@@ -5737,7 +5737,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H216" t="str" s="2">
-        <x:v>2022-12-15 08:24:21</x:v>
+        <x:v>2022-12-15 08:21:25</x:v>
       </x:c>
     </x:row>
     <x:row r="217">
@@ -5763,7 +5763,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H217" t="str" s="2">
-        <x:v>2022-12-15 17:55:15</x:v>
+        <x:v>2022-12-15 17:32:15</x:v>
       </x:c>
     </x:row>
     <x:row r="218">
@@ -5789,7 +5789,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H218" t="str" s="2">
-        <x:v>2022-12-16 08:22:29</x:v>
+        <x:v>2022-12-16 08:20:23</x:v>
       </x:c>
     </x:row>
     <x:row r="219">
@@ -5815,7 +5815,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H219" t="str" s="2">
-        <x:v>2022-12-16 17:54:57</x:v>
+        <x:v>2022-12-16 17:35:29</x:v>
       </x:c>
     </x:row>
     <x:row r="220">
@@ -5841,7 +5841,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H220" t="str" s="2">
-        <x:v>2022-12-17 08:23:18</x:v>
+        <x:v>2022-12-17 08:23:54</x:v>
       </x:c>
     </x:row>
     <x:row r="221">
@@ -5867,7 +5867,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H221" t="str" s="2">
-        <x:v>2022-12-17 20:55:50</x:v>
+        <x:v>2022-12-17 20:38:09</x:v>
       </x:c>
     </x:row>
     <x:row r="222">
@@ -5893,7 +5893,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H222" t="str" s="2">
-        <x:v>2022-12-19 08:20:34</x:v>
+        <x:v>2022-12-19 08:25:32</x:v>
       </x:c>
     </x:row>
     <x:row r="223">
@@ -5919,7 +5919,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H223" t="str" s="2">
-        <x:v>2022-12-19 17:51:31</x:v>
+        <x:v>2022-12-19 17:31:05</x:v>
       </x:c>
     </x:row>
     <x:row r="224">
@@ -5945,7 +5945,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H224" t="str" s="2">
-        <x:v>2022-12-20 08:23:09</x:v>
+        <x:v>2022-12-20 08:24:29</x:v>
       </x:c>
     </x:row>
     <x:row r="225">
@@ -5971,7 +5971,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H225" t="str" s="2">
-        <x:v>2022-12-20 20:57:30</x:v>
+        <x:v>2022-12-20 20:37:54</x:v>
       </x:c>
     </x:row>
     <x:row r="226">
@@ -5997,7 +5997,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H226" t="str" s="2">
-        <x:v>2022-12-21 08:23:34</x:v>
+        <x:v>2022-12-21 08:22:22</x:v>
       </x:c>
     </x:row>
     <x:row r="227">
@@ -6023,7 +6023,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H227" t="str" s="2">
-        <x:v>2022-12-21 17:56:34</x:v>
+        <x:v>2022-12-21 17:32:11</x:v>
       </x:c>
     </x:row>
     <x:row r="228">
@@ -6049,7 +6049,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H228" t="str" s="2">
-        <x:v>2022-12-23 08:20:44</x:v>
+        <x:v>2022-12-23 08:22:14</x:v>
       </x:c>
     </x:row>
     <x:row r="229">
@@ -6075,7 +6075,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H229" t="str" s="2">
-        <x:v>2022-12-23 17:55:26</x:v>
+        <x:v>2022-12-23 17:31:39</x:v>
       </x:c>
     </x:row>
     <x:row r="230">
@@ -6101,7 +6101,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H230" t="str" s="2">
-        <x:v>2022-12-24 08:23:42</x:v>
+        <x:v>2022-12-24 08:25:03</x:v>
       </x:c>
     </x:row>
     <x:row r="231">
@@ -6127,7 +6127,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H231" t="str" s="2">
-        <x:v>2022-12-24 17:54:31</x:v>
+        <x:v>2022-12-24 17:32:06</x:v>
       </x:c>
     </x:row>
     <x:row r="232">
@@ -6153,7 +6153,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H232" t="str" s="2">
-        <x:v>2022-12-27 08:20:47</x:v>
+        <x:v>2022-12-27 08:27:36</x:v>
       </x:c>
     </x:row>
     <x:row r="233">
@@ -6179,7 +6179,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H233" t="str" s="2">
-        <x:v>2022-12-27 17:55:21</x:v>
+        <x:v>2022-12-27 17:32:13</x:v>
       </x:c>
     </x:row>
     <x:row r="234">
@@ -6205,7 +6205,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H234" t="str" s="2">
-        <x:v>2022-12-30 08:28:55</x:v>
+        <x:v>2022-12-30 08:24:48</x:v>
       </x:c>
     </x:row>
     <x:row r="235">
@@ -6231,7 +6231,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H235" t="str" s="2">
-        <x:v>2022-12-30 17:59:30</x:v>
+        <x:v>2022-12-30 17:32:21</x:v>
       </x:c>
     </x:row>
     <x:row r="236">
@@ -6257,7 +6257,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H236" t="str" s="2">
-        <x:v>2022-12-01 08:21:22</x:v>
+        <x:v>2022-12-01 08:21:15</x:v>
       </x:c>
     </x:row>
     <x:row r="237">
@@ -6283,7 +6283,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H237" t="str" s="2">
-        <x:v>2022-12-01 20:54:46</x:v>
+        <x:v>2022-12-01 20:40:15</x:v>
       </x:c>
     </x:row>
     <x:row r="238">
@@ -6309,7 +6309,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H238" t="str" s="2">
-        <x:v>2022-12-02 08:22:18</x:v>
+        <x:v>2022-12-02 08:25:26</x:v>
       </x:c>
     </x:row>
     <x:row r="239">
@@ -6335,7 +6335,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H239" t="str" s="2">
-        <x:v>2022-12-02 17:55:15</x:v>
+        <x:v>2022-12-02 17:35:33</x:v>
       </x:c>
     </x:row>
     <x:row r="240">
@@ -6361,7 +6361,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H240" t="str" s="2">
-        <x:v>2022-12-04 08:23:05</x:v>
+        <x:v>2022-12-04 08:27:13</x:v>
       </x:c>
     </x:row>
     <x:row r="241">
@@ -6387,7 +6387,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H241" t="str" s="2">
-        <x:v>2022-12-04 20:57:26</x:v>
+        <x:v>2022-12-04 20:36:28</x:v>
       </x:c>
     </x:row>
     <x:row r="242">
@@ -6413,7 +6413,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H242" t="str" s="2">
-        <x:v>2022-12-05 08:27:23</x:v>
+        <x:v>2022-12-05 08:25:17</x:v>
       </x:c>
     </x:row>
     <x:row r="243">
@@ -6439,7 +6439,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H243" t="str" s="2">
-        <x:v>2022-12-05 17:58:37</x:v>
+        <x:v>2022-12-05 17:32:25</x:v>
       </x:c>
     </x:row>
     <x:row r="244">
@@ -6465,7 +6465,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H244" t="str" s="2">
-        <x:v>2022-12-06 08:27:13</x:v>
+        <x:v>2022-12-06 08:25:02</x:v>
       </x:c>
     </x:row>
     <x:row r="245">
@@ -6491,7 +6491,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H245" t="str" s="2">
-        <x:v>2022-12-06 18:01:45</x:v>
+        <x:v>2022-12-06 17:34:34</x:v>
       </x:c>
     </x:row>
     <x:row r="246">
@@ -6517,7 +6517,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H246" t="str" s="2">
-        <x:v>2022-12-07 08:26:09</x:v>
+        <x:v>2022-12-07 08:24:53</x:v>
       </x:c>
     </x:row>
     <x:row r="247">
@@ -6543,7 +6543,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H247" t="str" s="2">
-        <x:v>2022-12-07 20:57:36</x:v>
+        <x:v>2022-12-07 20:41:54</x:v>
       </x:c>
     </x:row>
     <x:row r="248">
@@ -6569,7 +6569,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H248" t="str" s="2">
-        <x:v>2022-12-08 08:26:48</x:v>
+        <x:v>2022-12-08 08:22:21</x:v>
       </x:c>
     </x:row>
     <x:row r="249">
@@ -6595,7 +6595,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H249" t="str" s="2">
-        <x:v>2022-12-08 20:58:10</x:v>
+        <x:v>2022-12-08 20:36:44</x:v>
       </x:c>
     </x:row>
     <x:row r="250">
@@ -6621,7 +6621,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H250" t="str" s="2">
-        <x:v>2022-12-09 08:24:33</x:v>
+        <x:v>2022-12-09 08:20:15</x:v>
       </x:c>
     </x:row>
     <x:row r="251">
@@ -6647,7 +6647,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H251" t="str" s="2">
-        <x:v>2022-12-09 17:56:53</x:v>
+        <x:v>2022-12-09 17:32:20</x:v>
       </x:c>
     </x:row>
     <x:row r="252">
@@ -6673,7 +6673,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H252" t="str" s="2">
-        <x:v>2022-12-10 08:23:11</x:v>
+        <x:v>2022-12-10 08:27:26</x:v>
       </x:c>
     </x:row>
     <x:row r="253">
@@ -6699,7 +6699,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H253" t="str" s="2">
-        <x:v>2022-12-10 20:58:00</x:v>
+        <x:v>2022-12-10 20:35:14</x:v>
       </x:c>
     </x:row>
     <x:row r="254">
@@ -6725,7 +6725,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H254" t="str" s="2">
-        <x:v>2022-12-12 08:28:35</x:v>
+        <x:v>2022-12-12 08:27:45</x:v>
       </x:c>
     </x:row>
     <x:row r="255">
@@ -6751,7 +6751,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H255" t="str" s="2">
-        <x:v>2022-12-12 21:02:11</x:v>
+        <x:v>2022-12-12 20:34:39</x:v>
       </x:c>
     </x:row>
     <x:row r="256">
@@ -6777,7 +6777,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H256" t="str" s="2">
-        <x:v>2022-12-14 08:21:58</x:v>
+        <x:v>2022-12-14 08:20:34</x:v>
       </x:c>
     </x:row>
     <x:row r="257">
@@ -6803,7 +6803,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H257" t="str" s="2">
-        <x:v>2022-12-14 17:55:17</x:v>
+        <x:v>2022-12-14 17:32:04</x:v>
       </x:c>
     </x:row>
     <x:row r="258">
@@ -6829,7 +6829,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H258" t="str" s="2">
-        <x:v>2022-12-15 08:23:52</x:v>
+        <x:v>2022-12-15 08:24:09</x:v>
       </x:c>
     </x:row>
     <x:row r="259">
@@ -6855,7 +6855,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H259" t="str" s="2">
-        <x:v>2022-12-15 17:56:27</x:v>
+        <x:v>2022-12-15 17:33:29</x:v>
       </x:c>
     </x:row>
     <x:row r="260">
@@ -6881,7 +6881,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H260" t="str" s="2">
-        <x:v>2022-12-16 08:22:05</x:v>
+        <x:v>2022-12-16 08:27:09</x:v>
       </x:c>
     </x:row>
     <x:row r="261">
@@ -6907,7 +6907,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H261" t="str" s="2">
-        <x:v>2022-12-16 20:53:21</x:v>
+        <x:v>2022-12-16 20:34:12</x:v>
       </x:c>
     </x:row>
     <x:row r="262">
@@ -6933,7 +6933,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H262" t="str" s="2">
-        <x:v>2022-12-17 08:23:06</x:v>
+        <x:v>2022-12-17 08:27:41</x:v>
       </x:c>
     </x:row>
     <x:row r="263">
@@ -6959,7 +6959,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H263" t="str" s="2">
-        <x:v>2022-12-17 20:56:47</x:v>
+        <x:v>2022-12-17 20:41:51</x:v>
       </x:c>
     </x:row>
     <x:row r="264">
@@ -6985,7 +6985,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H264" t="str" s="2">
-        <x:v>2022-12-19 08:28:40</x:v>
+        <x:v>2022-12-19 08:24:31</x:v>
       </x:c>
     </x:row>
     <x:row r="265">
@@ -7011,7 +7011,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H265" t="str" s="2">
-        <x:v>2022-12-19 18:00:54</x:v>
+        <x:v>2022-12-19 17:34:37</x:v>
       </x:c>
     </x:row>
     <x:row r="266">
@@ -7037,7 +7037,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H266" t="str" s="2">
-        <x:v>2022-12-20 08:20:39</x:v>
+        <x:v>2022-12-20 08:28:34</x:v>
       </x:c>
     </x:row>
     <x:row r="267">
@@ -7063,7 +7063,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H267" t="str" s="2">
-        <x:v>2022-12-20 20:52:46</x:v>
+        <x:v>2022-12-20 20:33:41</x:v>
       </x:c>
     </x:row>
     <x:row r="268">
@@ -7089,7 +7089,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H268" t="str" s="2">
-        <x:v>2022-12-23 08:25:27</x:v>
+        <x:v>2022-12-23 08:26:32</x:v>
       </x:c>
     </x:row>
     <x:row r="269">
@@ -7115,7 +7115,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H269" t="str" s="2">
-        <x:v>2022-12-23 17:56:09</x:v>
+        <x:v>2022-12-23 17:34:12</x:v>
       </x:c>
     </x:row>
     <x:row r="270">
@@ -7141,7 +7141,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H270" t="str" s="2">
-        <x:v>2022-12-27 08:24:40</x:v>
+        <x:v>2022-12-27 08:27:34</x:v>
       </x:c>
     </x:row>
     <x:row r="271">
@@ -7167,7 +7167,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H271" t="str" s="2">
-        <x:v>2022-12-27 17:57:54</x:v>
+        <x:v>2022-12-27 17:34:33</x:v>
       </x:c>
     </x:row>
     <x:row r="272">
@@ -7193,7 +7193,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H272" t="str" s="2">
-        <x:v>2022-12-30 08:28:57</x:v>
+        <x:v>2022-12-30 08:25:19</x:v>
       </x:c>
     </x:row>
     <x:row r="273">
@@ -7219,7 +7219,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H273" t="str" s="2">
-        <x:v>2022-12-30 18:02:27</x:v>
+        <x:v>2022-12-30 17:31:05</x:v>
       </x:c>
     </x:row>
     <x:row r="274">
@@ -7245,7 +7245,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H274" t="str" s="2">
-        <x:v>2022-12-01 08:28:01</x:v>
+        <x:v>2022-12-01 08:25:06</x:v>
       </x:c>
     </x:row>
     <x:row r="275">
@@ -7271,7 +7271,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H275" t="str" s="2">
-        <x:v>2022-12-01 20:58:03</x:v>
+        <x:v>2022-12-01 20:43:05</x:v>
       </x:c>
     </x:row>
     <x:row r="276">
@@ -7297,7 +7297,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H276" t="str" s="2">
-        <x:v>2022-12-02 08:24:19</x:v>
+        <x:v>2022-12-02 08:22:29</x:v>
       </x:c>
     </x:row>
     <x:row r="277">
@@ -7323,7 +7323,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H277" t="str" s="2">
-        <x:v>2022-12-02 17:57:54</x:v>
+        <x:v>2022-12-02 17:32:38</x:v>
       </x:c>
     </x:row>
     <x:row r="278">
@@ -7349,7 +7349,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H278" t="str" s="2">
-        <x:v>2022-12-04 08:28:02</x:v>
+        <x:v>2022-12-04 08:23:34</x:v>
       </x:c>
     </x:row>
     <x:row r="279">
@@ -7375,7 +7375,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H279" t="str" s="2">
-        <x:v>2022-12-04 20:59:50</x:v>
+        <x:v>2022-12-04 20:43:12</x:v>
       </x:c>
     </x:row>
     <x:row r="280">
@@ -7401,7 +7401,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H280" t="str" s="2">
-        <x:v>2022-12-05 08:28:06</x:v>
+        <x:v>2022-12-05 08:27:48</x:v>
       </x:c>
     </x:row>
     <x:row r="281">
@@ -7427,7 +7427,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H281" t="str" s="2">
-        <x:v>2022-12-05 17:58:24</x:v>
+        <x:v>2022-12-05 17:35:30</x:v>
       </x:c>
     </x:row>
     <x:row r="282">
@@ -7453,7 +7453,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H282" t="str" s="2">
-        <x:v>2022-12-06 08:28:07</x:v>
+        <x:v>2022-12-06 08:27:34</x:v>
       </x:c>
     </x:row>
     <x:row r="283">
@@ -7479,7 +7479,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H283" t="str" s="2">
-        <x:v>2022-12-06 17:58:28</x:v>
+        <x:v>2022-12-06 17:34:14</x:v>
       </x:c>
     </x:row>
     <x:row r="284">
@@ -7505,7 +7505,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H284" t="str" s="2">
-        <x:v>2022-12-07 08:28:32</x:v>
+        <x:v>2022-12-07 08:20:39</x:v>
       </x:c>
     </x:row>
     <x:row r="285">
@@ -7531,7 +7531,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H285" t="str" s="2">
-        <x:v>2022-12-07 21:00:48</x:v>
+        <x:v>2022-12-07 20:40:19</x:v>
       </x:c>
     </x:row>
     <x:row r="286">
@@ -7557,7 +7557,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H286" t="str" s="2">
-        <x:v>2022-12-08 08:20:23</x:v>
+        <x:v>2022-12-08 08:27:48</x:v>
       </x:c>
     </x:row>
     <x:row r="287">
@@ -7583,7 +7583,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H287" t="str" s="2">
-        <x:v>2022-12-08 20:52:56</x:v>
+        <x:v>2022-12-08 20:34:35</x:v>
       </x:c>
     </x:row>
     <x:row r="288">
@@ -7609,7 +7609,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H288" t="str" s="2">
-        <x:v>2022-12-09 08:28:45</x:v>
+        <x:v>2022-12-09 08:26:19</x:v>
       </x:c>
     </x:row>
     <x:row r="289">
@@ -7635,7 +7635,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H289" t="str" s="2">
-        <x:v>2022-12-09 18:03:27</x:v>
+        <x:v>2022-12-09 17:31:30</x:v>
       </x:c>
     </x:row>
     <x:row r="290">
@@ -7661,7 +7661,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H290" t="str" s="2">
-        <x:v>2022-12-10 08:21:49</x:v>
+        <x:v>2022-12-10 08:27:22</x:v>
       </x:c>
     </x:row>
     <x:row r="291">
@@ -7687,7 +7687,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H291" t="str" s="2">
-        <x:v>2022-12-10 20:54:50</x:v>
+        <x:v>2022-12-10 20:37:31</x:v>
       </x:c>
     </x:row>
     <x:row r="292">
@@ -7713,7 +7713,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H292" t="str" s="2">
-        <x:v>2022-12-12 08:26:26</x:v>
+        <x:v>2022-12-12 08:27:41</x:v>
       </x:c>
     </x:row>
     <x:row r="293">
@@ -7739,7 +7739,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H293" t="str" s="2">
-        <x:v>2022-12-12 20:57:20</x:v>
+        <x:v>2022-12-12 20:43:07</x:v>
       </x:c>
     </x:row>
     <x:row r="294">
@@ -7765,7 +7765,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H294" t="str" s="2">
-        <x:v>2022-12-14 08:23:19</x:v>
+        <x:v>2022-12-14 08:26:55</x:v>
       </x:c>
     </x:row>
     <x:row r="295">
@@ -7791,7 +7791,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H295" t="str" s="2">
-        <x:v>2022-12-14 20:58:06</x:v>
+        <x:v>2022-12-14 20:31:58</x:v>
       </x:c>
     </x:row>
     <x:row r="296">
@@ -7817,7 +7817,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H296" t="str" s="2">
-        <x:v>2022-12-15 08:21:39</x:v>
+        <x:v>2022-12-15 08:23:14</x:v>
       </x:c>
     </x:row>
     <x:row r="297">
@@ -7843,7 +7843,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H297" t="str" s="2">
-        <x:v>2022-12-15 20:56:26</x:v>
+        <x:v>2022-12-15 20:44:54</x:v>
       </x:c>
     </x:row>
     <x:row r="298">
@@ -7869,7 +7869,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H298" t="str" s="2">
-        <x:v>2022-12-16 08:26:02</x:v>
+        <x:v>2022-12-16 08:27:26</x:v>
       </x:c>
     </x:row>
     <x:row r="299">
@@ -7895,7 +7895,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H299" t="str" s="2">
-        <x:v>2022-12-16 20:59:32</x:v>
+        <x:v>2022-12-16 20:37:47</x:v>
       </x:c>
     </x:row>
     <x:row r="300">
@@ -7921,7 +7921,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H300" t="str" s="2">
-        <x:v>2022-12-17 08:27:47</x:v>
+        <x:v>2022-12-17 08:23:28</x:v>
       </x:c>
     </x:row>
     <x:row r="301">
@@ -7947,7 +7947,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H301" t="str" s="2">
-        <x:v>2022-12-17 20:58:30</x:v>
+        <x:v>2022-12-17 20:32:59</x:v>
       </x:c>
     </x:row>
     <x:row r="302">
@@ -7973,7 +7973,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H302" t="str" s="2">
-        <x:v>2022-12-19 08:28:03</x:v>
+        <x:v>2022-12-19 08:26:10</x:v>
       </x:c>
     </x:row>
     <x:row r="303">
@@ -7999,7 +7999,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H303" t="str" s="2">
-        <x:v>2022-12-19 17:59:37</x:v>
+        <x:v>2022-12-19 17:31:15</x:v>
       </x:c>
     </x:row>
     <x:row r="304">
@@ -8025,7 +8025,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H304" t="str" s="2">
-        <x:v>2022-12-20 08:27:08</x:v>
+        <x:v>2022-12-20 08:28:46</x:v>
       </x:c>
     </x:row>
     <x:row r="305">
@@ -8051,7 +8051,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H305" t="str" s="2">
-        <x:v>2022-12-20 20:58:27</x:v>
+        <x:v>2022-12-20 20:38:15</x:v>
       </x:c>
     </x:row>
     <x:row r="306">
@@ -8077,7 +8077,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H306" t="str" s="2">
-        <x:v>2022-12-23 08:26:18</x:v>
+        <x:v>2022-12-23 08:28:05</x:v>
       </x:c>
     </x:row>
     <x:row r="307">
@@ -8103,7 +8103,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H307" t="str" s="2">
-        <x:v>2022-12-23 17:57:01</x:v>
+        <x:v>2022-12-23 17:34:13</x:v>
       </x:c>
     </x:row>
     <x:row r="308">
@@ -8129,7 +8129,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H308" t="str" s="2">
-        <x:v>2022-12-27 08:24:01</x:v>
+        <x:v>2022-12-27 08:24:17</x:v>
       </x:c>
     </x:row>
     <x:row r="309">
@@ -8155,7 +8155,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H309" t="str" s="2">
-        <x:v>2022-12-27 17:57:23</x:v>
+        <x:v>2022-12-27 17:32:13</x:v>
       </x:c>
     </x:row>
     <x:row r="310">
@@ -8181,7 +8181,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H310" t="str" s="2">
-        <x:v>2022-12-30 08:24:17</x:v>
+        <x:v>2022-12-30 08:26:07</x:v>
       </x:c>
     </x:row>
     <x:row r="311">
@@ -8207,7 +8207,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H311" t="str" s="2">
-        <x:v>2022-12-30 17:55:58</x:v>
+        <x:v>2022-12-30 17:32:11</x:v>
       </x:c>
     </x:row>
     <x:row r="312">
@@ -8233,7 +8233,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H312" t="str" s="2">
-        <x:v>2022-12-01 08:23:52</x:v>
+        <x:v>2022-12-01 08:21:29</x:v>
       </x:c>
     </x:row>
     <x:row r="313">
@@ -8259,7 +8259,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H313" t="str" s="2">
-        <x:v>2022-12-01 20:54:45</x:v>
+        <x:v>2022-12-01 20:37:58</x:v>
       </x:c>
     </x:row>
     <x:row r="314">
@@ -8285,7 +8285,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H314" t="str" s="2">
-        <x:v>2022-12-02 08:23:38</x:v>
+        <x:v>2022-12-02 08:28:20</x:v>
       </x:c>
     </x:row>
     <x:row r="315">
@@ -8311,7 +8311,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H315" t="str" s="2">
-        <x:v>2022-12-02 17:54:52</x:v>
+        <x:v>2022-12-02 17:33:10</x:v>
       </x:c>
     </x:row>
     <x:row r="316">
@@ -8337,7 +8337,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H316" t="str" s="2">
-        <x:v>2022-12-04 08:22:04</x:v>
+        <x:v>2022-12-04 08:23:37</x:v>
       </x:c>
     </x:row>
     <x:row r="317">
@@ -8363,7 +8363,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H317" t="str" s="2">
-        <x:v>2022-12-04 20:53:48</x:v>
+        <x:v>2022-12-04 20:44:56</x:v>
       </x:c>
     </x:row>
     <x:row r="318">
@@ -8389,7 +8389,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H318" t="str" s="2">
-        <x:v>2022-12-05 08:20:54</x:v>
+        <x:v>2022-12-05 08:22:44</x:v>
       </x:c>
     </x:row>
     <x:row r="319">
@@ -8415,7 +8415,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H319" t="str" s="2">
-        <x:v>2022-12-05 17:53:47</x:v>
+        <x:v>2022-12-05 17:33:20</x:v>
       </x:c>
     </x:row>
     <x:row r="320">
@@ -8441,7 +8441,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H320" t="str" s="2">
-        <x:v>2022-12-06 08:25:03</x:v>
+        <x:v>2022-12-06 08:27:14</x:v>
       </x:c>
     </x:row>
     <x:row r="321">
@@ -8467,7 +8467,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H321" t="str" s="2">
-        <x:v>2022-12-06 17:57:41</x:v>
+        <x:v>2022-12-06 17:35:38</x:v>
       </x:c>
     </x:row>
     <x:row r="322">
@@ -8493,7 +8493,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H322" t="str" s="2">
-        <x:v>2022-12-07 08:27:15</x:v>
+        <x:v>2022-12-07 08:23:17</x:v>
       </x:c>
     </x:row>
     <x:row r="323">
@@ -8519,7 +8519,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H323" t="str" s="2">
-        <x:v>2022-12-07 21:01:02</x:v>
+        <x:v>2022-12-07 20:37:50</x:v>
       </x:c>
     </x:row>
     <x:row r="324">
@@ -8545,7 +8545,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H324" t="str" s="2">
-        <x:v>2022-12-08 08:27:18</x:v>
+        <x:v>2022-12-08 08:21:51</x:v>
       </x:c>
     </x:row>
     <x:row r="325">
@@ -8571,7 +8571,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H325" t="str" s="2">
-        <x:v>2022-12-08 21:01:59</x:v>
+        <x:v>2022-12-08 20:43:40</x:v>
       </x:c>
     </x:row>
     <x:row r="326">
@@ -8597,7 +8597,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H326" t="str" s="2">
-        <x:v>2022-12-09 08:25:18</x:v>
+        <x:v>2022-12-09 08:22:19</x:v>
       </x:c>
     </x:row>
     <x:row r="327">
@@ -8623,7 +8623,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H327" t="str" s="2">
-        <x:v>2022-12-09 17:55:48</x:v>
+        <x:v>2022-12-09 17:33:39</x:v>
       </x:c>
     </x:row>
     <x:row r="328">
@@ -8649,7 +8649,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H328" t="str" s="2">
-        <x:v>2022-12-10 08:26:15</x:v>
+        <x:v>2022-12-10 08:22:55</x:v>
       </x:c>
     </x:row>
     <x:row r="329">
@@ -8675,7 +8675,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H329" t="str" s="2">
-        <x:v>2022-12-10 17:59:50</x:v>
+        <x:v>2022-12-10 17:33:31</x:v>
       </x:c>
     </x:row>
     <x:row r="330">
@@ -8701,7 +8701,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H330" t="str" s="2">
-        <x:v>2022-12-12 08:23:31</x:v>
+        <x:v>2022-12-12 08:21:02</x:v>
       </x:c>
     </x:row>
     <x:row r="331">
@@ -8727,7 +8727,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H331" t="str" s="2">
-        <x:v>2022-12-12 20:55:32</x:v>
+        <x:v>2022-12-12 20:42:53</x:v>
       </x:c>
     </x:row>
     <x:row r="332">
@@ -8753,7 +8753,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H332" t="str" s="2">
-        <x:v>2022-12-13 08:24:35</x:v>
+        <x:v>2022-12-13 08:26:18</x:v>
       </x:c>
     </x:row>
     <x:row r="333">
@@ -8779,7 +8779,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H333" t="str" s="2">
-        <x:v>2022-12-13 20:58:16</x:v>
+        <x:v>2022-12-13 20:42:01</x:v>
       </x:c>
     </x:row>
     <x:row r="334">
@@ -8805,7 +8805,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H334" t="str" s="2">
-        <x:v>2022-12-14 08:28:21</x:v>
+        <x:v>2022-12-14 08:28:19</x:v>
       </x:c>
     </x:row>
     <x:row r="335">
@@ -8831,7 +8831,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H335" t="str" s="2">
-        <x:v>2022-12-14 20:59:48</x:v>
+        <x:v>2022-12-14 20:33:35</x:v>
       </x:c>
     </x:row>
     <x:row r="336">
@@ -8857,7 +8857,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H336" t="str" s="2">
-        <x:v>2022-12-15 08:27:38</x:v>
+        <x:v>2022-12-15 08:20:01</x:v>
       </x:c>
     </x:row>
     <x:row r="337">
@@ -8883,7 +8883,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H337" t="str" s="2">
-        <x:v>2022-12-15 18:00:23</x:v>
+        <x:v>2022-12-15 17:33:33</x:v>
       </x:c>
     </x:row>
     <x:row r="338">
@@ -8909,7 +8909,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H338" t="str" s="2">
-        <x:v>2022-12-16 08:20:17</x:v>
+        <x:v>2022-12-16 08:27:18</x:v>
       </x:c>
     </x:row>
     <x:row r="339">
@@ -8935,7 +8935,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H339" t="str" s="2">
-        <x:v>2022-12-16 20:52:27</x:v>
+        <x:v>2022-12-16 20:36:10</x:v>
       </x:c>
     </x:row>
     <x:row r="340">
@@ -8961,7 +8961,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H340" t="str" s="2">
-        <x:v>2022-12-17 08:26:25</x:v>
+        <x:v>2022-12-17 08:24:17</x:v>
       </x:c>
     </x:row>
     <x:row r="341">
@@ -8987,7 +8987,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H341" t="str" s="2">
-        <x:v>2022-12-17 18:00:22</x:v>
+        <x:v>2022-12-17 17:32:31</x:v>
       </x:c>
     </x:row>
     <x:row r="342">
@@ -9013,7 +9013,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H342" t="str" s="2">
-        <x:v>2022-12-19 08:23:50</x:v>
+        <x:v>2022-12-19 08:22:56</x:v>
       </x:c>
     </x:row>
     <x:row r="343">
@@ -9039,7 +9039,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H343" t="str" s="2">
-        <x:v>2022-12-19 20:58:21</x:v>
+        <x:v>2022-12-19 20:39:45</x:v>
       </x:c>
     </x:row>
     <x:row r="344">
@@ -9065,7 +9065,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H344" t="str" s="2">
-        <x:v>2022-12-20 08:28:26</x:v>
+        <x:v>2022-12-20 08:22:41</x:v>
       </x:c>
     </x:row>
     <x:row r="345">
@@ -9091,7 +9091,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H345" t="str" s="2">
-        <x:v>2022-12-20 20:59:44</x:v>
+        <x:v>2022-12-20 20:42:34</x:v>
       </x:c>
     </x:row>
     <x:row r="346">
@@ -9117,7 +9117,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H346" t="str" s="2">
-        <x:v>2022-12-23 08:28:52</x:v>
+        <x:v>2022-12-23 08:21:29</x:v>
       </x:c>
     </x:row>
     <x:row r="347">
@@ -9143,7 +9143,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H347" t="str" s="2">
-        <x:v>2022-12-23 18:00:44</x:v>
+        <x:v>2022-12-23 17:34:16</x:v>
       </x:c>
     </x:row>
     <x:row r="348">
@@ -9169,7 +9169,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H348" t="str" s="2">
-        <x:v>2022-12-26 08:26:56</x:v>
+        <x:v>2022-12-26 08:22:26</x:v>
       </x:c>
     </x:row>
     <x:row r="349">
@@ -9195,7 +9195,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H349" t="str" s="2">
-        <x:v>2022-12-26 20:57:07</x:v>
+        <x:v>2022-12-26 20:32:52</x:v>
       </x:c>
     </x:row>
     <x:row r="350">
@@ -9221,7 +9221,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H350" t="str" s="2">
-        <x:v>2022-12-01 08:28:34</x:v>
+        <x:v>2022-12-01 08:27:16</x:v>
       </x:c>
     </x:row>
     <x:row r="351">
@@ -9247,7 +9247,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H351" t="str" s="2">
-        <x:v>2022-12-01 20:59:08</x:v>
+        <x:v>2022-12-01 20:33:42</x:v>
       </x:c>
     </x:row>
     <x:row r="352">
@@ -9273,7 +9273,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H352" t="str" s="2">
-        <x:v>2022-12-02 08:25:36</x:v>
+        <x:v>2022-12-02 08:26:52</x:v>
       </x:c>
     </x:row>
     <x:row r="353">
@@ -9299,7 +9299,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H353" t="str" s="2">
-        <x:v>2022-12-02 17:57:19</x:v>
+        <x:v>2022-12-02 17:33:24</x:v>
       </x:c>
     </x:row>
     <x:row r="354">
@@ -9325,7 +9325,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H354" t="str" s="2">
-        <x:v>2022-12-03 08:22:12</x:v>
+        <x:v>2022-12-03 08:21:24</x:v>
       </x:c>
     </x:row>
     <x:row r="355">
@@ -9351,7 +9351,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H355" t="str" s="2">
-        <x:v>2022-12-03 20:54:35</x:v>
+        <x:v>2022-12-03 20:34:51</x:v>
       </x:c>
     </x:row>
     <x:row r="356">
@@ -9377,7 +9377,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H356" t="str" s="2">
-        <x:v>2022-12-04 08:26:28</x:v>
+        <x:v>2022-12-04 08:24:23</x:v>
       </x:c>
     </x:row>
     <x:row r="357">
@@ -9403,7 +9403,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H357" t="str" s="2">
-        <x:v>2022-12-04 21:00:32</x:v>
+        <x:v>2022-12-04 20:41:28</x:v>
       </x:c>
     </x:row>
     <x:row r="358">
@@ -9429,7 +9429,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H358" t="str" s="2">
-        <x:v>2022-12-05 08:22:51</x:v>
+        <x:v>2022-12-05 08:28:48</x:v>
       </x:c>
     </x:row>
     <x:row r="359">
@@ -9455,7 +9455,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H359" t="str" s="2">
-        <x:v>2022-12-05 17:54:59</x:v>
+        <x:v>2022-12-05 17:34:04</x:v>
       </x:c>
     </x:row>
     <x:row r="360">
@@ -9481,7 +9481,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H360" t="str" s="2">
-        <x:v>2022-12-06 08:20:04</x:v>
+        <x:v>2022-12-06 08:20:50</x:v>
       </x:c>
     </x:row>
     <x:row r="361">
@@ -9507,7 +9507,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H361" t="str" s="2">
-        <x:v>2022-12-06 17:50:50</x:v>
+        <x:v>2022-12-06 17:31:01</x:v>
       </x:c>
     </x:row>
     <x:row r="362">
@@ -9533,7 +9533,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H362" t="str" s="2">
-        <x:v>2022-12-07 08:26:43</x:v>
+        <x:v>2022-12-07 08:24:52</x:v>
       </x:c>
     </x:row>
     <x:row r="363">
@@ -9559,7 +9559,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H363" t="str" s="2">
-        <x:v>2022-12-07 20:59:32</x:v>
+        <x:v>2022-12-07 20:40:25</x:v>
       </x:c>
     </x:row>
     <x:row r="364">
@@ -9585,7 +9585,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H364" t="str" s="2">
-        <x:v>2022-12-08 08:22:22</x:v>
+        <x:v>2022-12-08 08:25:25</x:v>
       </x:c>
     </x:row>
     <x:row r="365">
@@ -9611,7 +9611,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H365" t="str" s="2">
-        <x:v>2022-12-08 20:56:12</x:v>
+        <x:v>2022-12-08 20:35:07</x:v>
       </x:c>
     </x:row>
     <x:row r="366">
@@ -9637,7 +9637,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H366" t="str" s="2">
-        <x:v>2022-12-09 08:21:11</x:v>
+        <x:v>2022-12-09 08:20:00</x:v>
       </x:c>
     </x:row>
     <x:row r="367">
@@ -9663,7 +9663,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H367" t="str" s="2">
-        <x:v>2022-12-09 17:51:19</x:v>
+        <x:v>2022-12-09 17:35:32</x:v>
       </x:c>
     </x:row>
     <x:row r="368">
@@ -9689,7 +9689,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H368" t="str" s="2">
-        <x:v>2022-12-10 08:20:58</x:v>
+        <x:v>2022-12-10 08:27:30</x:v>
       </x:c>
     </x:row>
     <x:row r="369">
@@ -9715,7 +9715,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H369" t="str" s="2">
-        <x:v>2022-12-10 17:51:37</x:v>
+        <x:v>2022-12-10 17:31:17</x:v>
       </x:c>
     </x:row>
     <x:row r="370">
@@ -9741,7 +9741,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H370" t="str" s="2">
-        <x:v>2022-12-12 08:24:45</x:v>
+        <x:v>2022-12-12 08:24:37</x:v>
       </x:c>
     </x:row>
     <x:row r="371">
@@ -9767,7 +9767,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H371" t="str" s="2">
-        <x:v>2022-12-12 20:54:54</x:v>
+        <x:v>2022-12-12 20:39:19</x:v>
       </x:c>
     </x:row>
     <x:row r="372">
@@ -9793,7 +9793,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H372" t="str" s="2">
-        <x:v>2022-12-13 08:20:35</x:v>
+        <x:v>2022-12-13 08:21:27</x:v>
       </x:c>
     </x:row>
     <x:row r="373">
@@ -9819,7 +9819,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H373" t="str" s="2">
-        <x:v>2022-12-13 20:52:56</x:v>
+        <x:v>2022-12-13 20:31:26</x:v>
       </x:c>
     </x:row>
     <x:row r="374">
@@ -9845,7 +9845,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H374" t="str" s="2">
-        <x:v>2022-12-14 08:23:49</x:v>
+        <x:v>2022-12-14 08:20:20</x:v>
       </x:c>
     </x:row>
     <x:row r="375">
@@ -9871,7 +9871,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H375" t="str" s="2">
-        <x:v>2022-12-14 17:55:40</x:v>
+        <x:v>2022-12-14 17:31:01</x:v>
       </x:c>
     </x:row>
     <x:row r="376">
@@ -9897,7 +9897,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H376" t="str" s="2">
-        <x:v>2022-12-15 08:28:40</x:v>
+        <x:v>2022-12-15 08:26:22</x:v>
       </x:c>
     </x:row>
     <x:row r="377">
@@ -9923,7 +9923,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H377" t="str" s="2">
-        <x:v>2022-12-15 20:59:58</x:v>
+        <x:v>2022-12-15 20:37:06</x:v>
       </x:c>
     </x:row>
     <x:row r="378">
@@ -9949,7 +9949,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H378" t="str" s="2">
-        <x:v>2022-12-16 08:25:13</x:v>
+        <x:v>2022-12-16 08:27:56</x:v>
       </x:c>
     </x:row>
     <x:row r="379">
@@ -9975,7 +9975,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H379" t="str" s="2">
-        <x:v>2022-12-16 20:58:25</x:v>
+        <x:v>2022-12-16 20:37:25</x:v>
       </x:c>
     </x:row>
     <x:row r="380">
@@ -10001,7 +10001,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H380" t="str" s="2">
-        <x:v>2022-12-17 08:26:13</x:v>
+        <x:v>2022-12-17 08:22:12</x:v>
       </x:c>
     </x:row>
     <x:row r="381">
@@ -10027,7 +10027,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H381" t="str" s="2">
-        <x:v>2022-12-17 17:58:56</x:v>
+        <x:v>2022-12-17 17:33:19</x:v>
       </x:c>
     </x:row>
     <x:row r="382">
@@ -10053,7 +10053,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H382" t="str" s="2">
-        <x:v>2022-12-19 08:22:30</x:v>
+        <x:v>2022-12-19 08:28:25</x:v>
       </x:c>
     </x:row>
     <x:row r="383">
@@ -10079,7 +10079,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H383" t="str" s="2">
-        <x:v>2022-12-19 20:57:28</x:v>
+        <x:v>2022-12-19 20:31:37</x:v>
       </x:c>
     </x:row>
     <x:row r="384">
@@ -10105,7 +10105,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H384" t="str" s="2">
-        <x:v>2022-12-20 08:28:45</x:v>
+        <x:v>2022-12-20 08:28:04</x:v>
       </x:c>
     </x:row>
     <x:row r="385">
@@ -10131,7 +10131,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H385" t="str" s="2">
-        <x:v>2022-12-20 21:03:29</x:v>
+        <x:v>2022-12-20 20:39:35</x:v>
       </x:c>
     </x:row>
     <x:row r="386">
@@ -10157,7 +10157,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H386" t="str" s="2">
-        <x:v>2022-12-23 08:28:41</x:v>
+        <x:v>2022-12-23 08:26:31</x:v>
       </x:c>
     </x:row>
     <x:row r="387">
@@ -10183,7 +10183,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H387" t="str" s="2">
-        <x:v>2022-12-23 18:00:32</x:v>
+        <x:v>2022-12-23 17:33:30</x:v>
       </x:c>
     </x:row>
     <x:row r="388">
@@ -10209,7 +10209,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H388" t="str" s="2">
-        <x:v>2022-12-24 08:28:53</x:v>
+        <x:v>2022-12-24 08:21:10</x:v>
       </x:c>
     </x:row>
     <x:row r="389">
@@ -10235,7 +10235,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H389" t="str" s="2">
-        <x:v>2022-12-24 17:59:36</x:v>
+        <x:v>2022-12-24 17:31:30</x:v>
       </x:c>
     </x:row>
     <x:row r="390">
@@ -10261,7 +10261,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H390" t="str" s="2">
-        <x:v>2022-12-26 08:27:37</x:v>
+        <x:v>2022-12-26 08:23:05</x:v>
       </x:c>
     </x:row>
     <x:row r="391">
@@ -10287,7 +10287,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H391" t="str" s="2">
-        <x:v>2022-12-26 20:57:47</x:v>
+        <x:v>2022-12-26 20:41:57</x:v>
       </x:c>
     </x:row>
     <x:row r="392">
@@ -10313,7 +10313,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H392" t="str" s="2">
-        <x:v>2022-12-27 08:24:30</x:v>
+        <x:v>2022-12-27 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="393">
@@ -10339,7 +10339,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H393" t="str" s="2">
-        <x:v>2022-12-27 20:59:17</x:v>
+        <x:v>2022-12-27 20:43:37</x:v>
       </x:c>
     </x:row>
     <x:row r="394">
@@ -10365,7 +10365,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H394" t="str" s="2">
-        <x:v>2022-12-30 08:21:11</x:v>
+        <x:v>2022-12-30 08:26:57</x:v>
       </x:c>
     </x:row>
     <x:row r="395">
@@ -10391,7 +10391,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H395" t="str" s="2">
-        <x:v>2022-12-30 17:51:21</x:v>
+        <x:v>2022-12-30 17:35:11</x:v>
       </x:c>
     </x:row>
     <x:row r="396">
@@ -10417,7 +10417,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H396" t="str" s="2">
-        <x:v>2022-12-01 08:25:23</x:v>
+        <x:v>2022-12-01 08:22:47</x:v>
       </x:c>
     </x:row>
     <x:row r="397">
@@ -10443,7 +10443,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H397" t="str" s="2">
-        <x:v>2022-12-01 21:00:11</x:v>
+        <x:v>2022-12-01 20:33:36</x:v>
       </x:c>
     </x:row>
     <x:row r="398">
@@ -10469,7 +10469,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H398" t="str" s="2">
-        <x:v>2022-12-02 08:23:26</x:v>
+        <x:v>2022-12-02 08:22:24</x:v>
       </x:c>
     </x:row>
     <x:row r="399">
@@ -10495,7 +10495,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H399" t="str" s="2">
-        <x:v>2022-12-02 17:53:56</x:v>
+        <x:v>2022-12-02 17:31:19</x:v>
       </x:c>
     </x:row>
     <x:row r="400">
@@ -10521,7 +10521,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H400" t="str" s="2">
-        <x:v>2022-12-03 08:28:16</x:v>
+        <x:v>2022-12-03 08:24:55</x:v>
       </x:c>
     </x:row>
     <x:row r="401">
@@ -10547,7 +10547,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H401" t="str" s="2">
-        <x:v>2022-12-03 20:59:43</x:v>
+        <x:v>2022-12-03 20:33:13</x:v>
       </x:c>
     </x:row>
     <x:row r="402">
@@ -10573,7 +10573,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H402" t="str" s="2">
-        <x:v>2022-12-04 08:26:42</x:v>
+        <x:v>2022-12-04 08:23:24</x:v>
       </x:c>
     </x:row>
     <x:row r="403">
@@ -10599,7 +10599,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H403" t="str" s="2">
-        <x:v>2022-12-04 21:00:46</x:v>
+        <x:v>2022-12-04 20:42:52</x:v>
       </x:c>
     </x:row>
     <x:row r="404">
@@ -10625,7 +10625,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H404" t="str" s="2">
-        <x:v>2022-12-05 08:22:07</x:v>
+        <x:v>2022-12-05 08:20:40</x:v>
       </x:c>
     </x:row>
     <x:row r="405">
@@ -10651,7 +10651,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H405" t="str" s="2">
-        <x:v>2022-12-05 17:52:58</x:v>
+        <x:v>2022-12-05 17:35:22</x:v>
       </x:c>
     </x:row>
     <x:row r="406">
@@ -10677,7 +10677,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H406" t="str" s="2">
-        <x:v>2022-12-06 08:28:12</x:v>
+        <x:v>2022-12-06 08:26:45</x:v>
       </x:c>
     </x:row>
     <x:row r="407">
@@ -10703,7 +10703,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H407" t="str" s="2">
-        <x:v>2022-12-06 18:03:01</x:v>
+        <x:v>2022-12-06 17:34:32</x:v>
       </x:c>
     </x:row>
     <x:row r="408">
@@ -10729,7 +10729,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H408" t="str" s="2">
-        <x:v>2022-12-07 08:22:25</x:v>
+        <x:v>2022-12-07 08:25:52</x:v>
       </x:c>
     </x:row>
     <x:row r="409">
@@ -10755,7 +10755,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H409" t="str" s="2">
-        <x:v>2022-12-07 20:54:57</x:v>
+        <x:v>2022-12-07 20:32:45</x:v>
       </x:c>
     </x:row>
     <x:row r="410">
@@ -10781,7 +10781,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H410" t="str" s="2">
-        <x:v>2022-12-08 08:26:13</x:v>
+        <x:v>2022-12-08 08:22:25</x:v>
       </x:c>
     </x:row>
     <x:row r="411">
@@ -10807,7 +10807,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H411" t="str" s="2">
-        <x:v>2022-12-08 20:57:06</x:v>
+        <x:v>2022-12-08 20:35:05</x:v>
       </x:c>
     </x:row>
     <x:row r="412">
@@ -10833,7 +10833,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H412" t="str" s="2">
-        <x:v>2022-12-09 08:24:08</x:v>
+        <x:v>2022-12-09 08:21:55</x:v>
       </x:c>
     </x:row>
     <x:row r="413">
@@ -10859,7 +10859,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H413" t="str" s="2">
-        <x:v>2022-12-09 17:54:43</x:v>
+        <x:v>2022-12-09 17:31:29</x:v>
       </x:c>
     </x:row>
     <x:row r="414">
@@ -10885,7 +10885,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H414" t="str" s="2">
-        <x:v>2022-12-10 08:20:33</x:v>
+        <x:v>2022-12-10 08:24:28</x:v>
       </x:c>
     </x:row>
     <x:row r="415">
@@ -10911,7 +10911,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H415" t="str" s="2">
-        <x:v>2022-12-10 17:55:03</x:v>
+        <x:v>2022-12-10 17:35:21</x:v>
       </x:c>
     </x:row>
     <x:row r="416">
@@ -10937,7 +10937,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H416" t="str" s="2">
-        <x:v>2022-12-12 08:28:49</x:v>
+        <x:v>2022-12-12 08:23:17</x:v>
       </x:c>
     </x:row>
     <x:row r="417">
@@ -10963,7 +10963,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H417" t="str" s="2">
-        <x:v>2022-12-12 17:59:36</x:v>
+        <x:v>2022-12-12 17:32:25</x:v>
       </x:c>
     </x:row>
     <x:row r="418">
@@ -10989,7 +10989,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H418" t="str" s="2">
-        <x:v>2022-12-13 08:22:28</x:v>
+        <x:v>2022-12-13 08:25:24</x:v>
       </x:c>
     </x:row>
     <x:row r="419">
@@ -11015,7 +11015,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H419" t="str" s="2">
-        <x:v>2022-12-13 20:54:01</x:v>
+        <x:v>2022-12-13 20:35:13</x:v>
       </x:c>
     </x:row>
     <x:row r="420">
@@ -11041,7 +11041,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H420" t="str" s="2">
-        <x:v>2022-12-14 08:20:51</x:v>
+        <x:v>2022-12-14 08:24:45</x:v>
       </x:c>
     </x:row>
     <x:row r="421">
@@ -11067,7 +11067,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H421" t="str" s="2">
-        <x:v>2022-12-14 20:51:40</x:v>
+        <x:v>2022-12-14 20:33:34</x:v>
       </x:c>
     </x:row>
     <x:row r="422">
@@ -11093,7 +11093,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H422" t="str" s="2">
-        <x:v>2022-12-15 08:22:26</x:v>
+        <x:v>2022-12-15 08:25:57</x:v>
       </x:c>
     </x:row>
     <x:row r="423">
@@ -11119,7 +11119,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H423" t="str" s="2">
-        <x:v>2022-12-15 17:53:55</x:v>
+        <x:v>2022-12-15 17:35:23</x:v>
       </x:c>
     </x:row>
     <x:row r="424">
@@ -11145,7 +11145,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H424" t="str" s="2">
-        <x:v>2022-12-16 08:24:21</x:v>
+        <x:v>2022-12-16 08:26:12</x:v>
       </x:c>
     </x:row>
     <x:row r="425">
@@ -11171,7 +11171,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H425" t="str" s="2">
-        <x:v>2022-12-16 17:59:09</x:v>
+        <x:v>2022-12-16 17:32:18</x:v>
       </x:c>
     </x:row>
     <x:row r="426">
@@ -11197,7 +11197,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H426" t="str" s="2">
-        <x:v>2022-12-17 08:25:06</x:v>
+        <x:v>2022-12-17 08:26:30</x:v>
       </x:c>
     </x:row>
     <x:row r="427">
@@ -11223,7 +11223,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H427" t="str" s="2">
-        <x:v>2022-12-17 20:56:12</x:v>
+        <x:v>2022-12-17 20:37:58</x:v>
       </x:c>
     </x:row>
     <x:row r="428">
@@ -11249,7 +11249,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H428" t="str" s="2">
-        <x:v>2022-12-19 08:20:10</x:v>
+        <x:v>2022-12-19 08:28:14</x:v>
       </x:c>
     </x:row>
     <x:row r="429">
@@ -11275,7 +11275,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H429" t="str" s="2">
-        <x:v>2022-12-19 20:51:28</x:v>
+        <x:v>2022-12-19 20:31:40</x:v>
       </x:c>
     </x:row>
     <x:row r="430">
@@ -11301,7 +11301,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H430" t="str" s="2">
-        <x:v>2022-12-20 08:26:26</x:v>
+        <x:v>2022-12-20 08:21:43</x:v>
       </x:c>
     </x:row>
     <x:row r="431">
@@ -11327,7 +11327,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H431" t="str" s="2">
-        <x:v>2022-12-20 20:57:35</x:v>
+        <x:v>2022-12-20 20:39:07</x:v>
       </x:c>
     </x:row>
     <x:row r="432">
@@ -11353,7 +11353,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H432" t="str" s="2">
-        <x:v>2022-12-23 08:21:49</x:v>
+        <x:v>2022-12-23 08:27:31</x:v>
       </x:c>
     </x:row>
     <x:row r="433">
@@ -11379,7 +11379,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H433" t="str" s="2">
-        <x:v>2022-12-23 17:54:15</x:v>
+        <x:v>2022-12-23 17:31:03</x:v>
       </x:c>
     </x:row>
     <x:row r="434">
@@ -11405,7 +11405,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H434" t="str" s="2">
-        <x:v>2022-12-24 08:27:18</x:v>
+        <x:v>2022-12-24 08:23:56</x:v>
       </x:c>
     </x:row>
     <x:row r="435">
@@ -11431,7 +11431,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H435" t="str" s="2">
-        <x:v>2022-12-24 18:01:49</x:v>
+        <x:v>2022-12-24 17:34:00</x:v>
       </x:c>
     </x:row>
     <x:row r="436">
@@ -11457,7 +11457,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H436" t="str" s="2">
-        <x:v>2022-12-26 08:22:46</x:v>
+        <x:v>2022-12-26 08:28:42</x:v>
       </x:c>
     </x:row>
     <x:row r="437">
@@ -11483,7 +11483,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H437" t="str" s="2">
-        <x:v>2022-12-26 20:53:02</x:v>
+        <x:v>2022-12-26 20:37:25</x:v>
       </x:c>
     </x:row>
     <x:row r="438">
@@ -11509,7 +11509,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H438" t="str" s="2">
-        <x:v>2022-12-27 08:24:09</x:v>
+        <x:v>2022-12-27 08:27:42</x:v>
       </x:c>
     </x:row>
     <x:row r="439">
@@ -11535,7 +11535,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H439" t="str" s="2">
-        <x:v>2022-12-27 20:56:12</x:v>
+        <x:v>2022-12-27 20:35:54</x:v>
       </x:c>
     </x:row>
     <x:row r="440">
@@ -11561,7 +11561,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H440" t="str" s="2">
-        <x:v>2022-12-01 08:20:00</x:v>
+        <x:v>2022-12-01 08:27:19</x:v>
       </x:c>
     </x:row>
     <x:row r="441">
@@ -11587,7 +11587,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H441" t="str" s="2">
-        <x:v>2022-12-01 20:52:34</x:v>
+        <x:v>2022-12-01 20:36:36</x:v>
       </x:c>
     </x:row>
     <x:row r="442">
@@ -11613,7 +11613,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H442" t="str" s="2">
-        <x:v>2022-12-03 08:20:12</x:v>
+        <x:v>2022-12-03 08:24:31</x:v>
       </x:c>
     </x:row>
     <x:row r="443">
@@ -11639,7 +11639,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H443" t="str" s="2">
-        <x:v>2022-12-03 20:50:50</x:v>
+        <x:v>2022-12-03 20:34:59</x:v>
       </x:c>
     </x:row>
     <x:row r="444">
@@ -11665,7 +11665,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H444" t="str" s="2">
-        <x:v>2022-12-04 08:26:15</x:v>
+        <x:v>2022-12-04 08:27:19</x:v>
       </x:c>
     </x:row>
     <x:row r="445">
@@ -11691,7 +11691,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H445" t="str" s="2">
-        <x:v>2022-12-04 21:00:01</x:v>
+        <x:v>2022-12-04 20:37:39</x:v>
       </x:c>
     </x:row>
     <x:row r="446">
@@ -11717,7 +11717,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H446" t="str" s="2">
-        <x:v>2022-12-05 08:21:29</x:v>
+        <x:v>2022-12-05 08:28:37</x:v>
       </x:c>
     </x:row>
     <x:row r="447">
@@ -11743,7 +11743,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H447" t="str" s="2">
-        <x:v>2022-12-05 17:55:26</x:v>
+        <x:v>2022-12-05 17:33:02</x:v>
       </x:c>
     </x:row>
     <x:row r="448">
@@ -11769,7 +11769,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H448" t="str" s="2">
-        <x:v>2022-12-06 08:28:39</x:v>
+        <x:v>2022-12-06 08:23:25</x:v>
       </x:c>
     </x:row>
     <x:row r="449">
@@ -11795,7 +11795,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H449" t="str" s="2">
-        <x:v>2022-12-06 18:03:35</x:v>
+        <x:v>2022-12-06 17:33:38</x:v>
       </x:c>
     </x:row>
     <x:row r="450">
@@ -11821,7 +11821,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H450" t="str" s="2">
-        <x:v>2022-12-07 08:24:29</x:v>
+        <x:v>2022-12-07 08:20:53</x:v>
       </x:c>
     </x:row>
     <x:row r="451">
@@ -11847,7 +11847,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H451" t="str" s="2">
-        <x:v>2022-12-07 20:57:08</x:v>
+        <x:v>2022-12-07 20:38:56</x:v>
       </x:c>
     </x:row>
     <x:row r="452">
@@ -11873,7 +11873,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H452" t="str" s="2">
-        <x:v>2022-12-08 08:23:38</x:v>
+        <x:v>2022-12-08 08:23:15</x:v>
       </x:c>
     </x:row>
     <x:row r="453">
@@ -11899,7 +11899,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H453" t="str" s="2">
-        <x:v>2022-12-08 20:56:09</x:v>
+        <x:v>2022-12-08 20:38:02</x:v>
       </x:c>
     </x:row>
     <x:row r="454">
@@ -11925,7 +11925,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H454" t="str" s="2">
-        <x:v>2022-12-09 08:28:33</x:v>
+        <x:v>2022-12-09 08:23:45</x:v>
       </x:c>
     </x:row>
     <x:row r="455">
@@ -11951,7 +11951,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H455" t="str" s="2">
-        <x:v>2022-12-09 18:03:11</x:v>
+        <x:v>2022-12-09 17:33:32</x:v>
       </x:c>
     </x:row>
     <x:row r="456">
@@ -11977,7 +11977,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H456" t="str" s="2">
-        <x:v>2022-12-10 08:24:12</x:v>
+        <x:v>2022-12-10 08:21:04</x:v>
       </x:c>
     </x:row>
     <x:row r="457">
@@ -12003,7 +12003,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H457" t="str" s="2">
-        <x:v>2022-12-10 17:58:36</x:v>
+        <x:v>2022-12-10 17:33:24</x:v>
       </x:c>
     </x:row>
     <x:row r="458">
@@ -12029,7 +12029,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H458" t="str" s="2">
-        <x:v>2022-12-12 08:27:00</x:v>
+        <x:v>2022-12-12 08:28:14</x:v>
       </x:c>
     </x:row>
     <x:row r="459">
@@ -12055,7 +12055,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H459" t="str" s="2">
-        <x:v>2022-12-12 20:59:36</x:v>
+        <x:v>2022-12-12 20:41:41</x:v>
       </x:c>
     </x:row>
     <x:row r="460">
@@ -12081,7 +12081,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H460" t="str" s="2">
-        <x:v>2022-12-13 08:25:21</x:v>
+        <x:v>2022-12-13 08:25:46</x:v>
       </x:c>
     </x:row>
     <x:row r="461">
@@ -12107,7 +12107,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H461" t="str" s="2">
-        <x:v>2022-12-13 20:58:39</x:v>
+        <x:v>2022-12-13 20:44:20</x:v>
       </x:c>
     </x:row>
     <x:row r="462">
@@ -12133,7 +12133,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H462" t="str" s="2">
-        <x:v>2022-12-14 08:24:20</x:v>
+        <x:v>2022-12-14 08:24:48</x:v>
       </x:c>
     </x:row>
     <x:row r="463">
@@ -12159,7 +12159,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H463" t="str" s="2">
-        <x:v>2022-12-14 17:57:33</x:v>
+        <x:v>2022-12-14 17:32:05</x:v>
       </x:c>
     </x:row>
     <x:row r="464">
@@ -12185,7 +12185,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H464" t="str" s="2">
-        <x:v>2022-12-15 08:26:17</x:v>
+        <x:v>2022-12-15 08:24:02</x:v>
       </x:c>
     </x:row>
     <x:row r="465">
@@ -12211,7 +12211,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H465" t="str" s="2">
-        <x:v>2022-12-15 17:56:42</x:v>
+        <x:v>2022-12-15 17:33:14</x:v>
       </x:c>
     </x:row>
     <x:row r="466">
@@ -12237,7 +12237,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H466" t="str" s="2">
-        <x:v>2022-12-16 08:28:52</x:v>
+        <x:v>2022-12-16 08:28:55</x:v>
       </x:c>
     </x:row>
     <x:row r="467">
@@ -12263,7 +12263,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H467" t="str" s="2">
-        <x:v>2022-12-16 18:01:16</x:v>
+        <x:v>2022-12-16 17:33:35</x:v>
       </x:c>
     </x:row>
     <x:row r="468">
@@ -12289,7 +12289,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H468" t="str" s="2">
-        <x:v>2022-12-17 08:22:13</x:v>
+        <x:v>2022-12-17 08:28:04</x:v>
       </x:c>
     </x:row>
     <x:row r="469">
@@ -12315,7 +12315,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H469" t="str" s="2">
-        <x:v>2022-12-17 20:54:33</x:v>
+        <x:v>2022-12-17 20:42:00</x:v>
       </x:c>
     </x:row>
     <x:row r="470">
@@ -12341,7 +12341,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H470" t="str" s="2">
-        <x:v>2022-12-19 08:20:06</x:v>
+        <x:v>2022-12-19 08:28:52</x:v>
       </x:c>
     </x:row>
     <x:row r="471">
@@ -12367,7 +12367,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H471" t="str" s="2">
-        <x:v>2022-12-19 20:52:52</x:v>
+        <x:v>2022-12-19 20:44:44</x:v>
       </x:c>
     </x:row>
     <x:row r="472">
@@ -12393,7 +12393,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H472" t="str" s="2">
-        <x:v>2022-12-20 08:25:52</x:v>
+        <x:v>2022-12-20 08:24:52</x:v>
       </x:c>
     </x:row>
     <x:row r="473">
@@ -12419,7 +12419,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H473" t="str" s="2">
-        <x:v>2022-12-20 20:55:52</x:v>
+        <x:v>2022-12-20 20:41:29</x:v>
       </x:c>
     </x:row>
     <x:row r="474">
@@ -12445,7 +12445,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H474" t="str" s="2">
-        <x:v>2022-12-21 08:23:13</x:v>
+        <x:v>2022-12-21 08:27:00</x:v>
       </x:c>
     </x:row>
     <x:row r="475">
@@ -12471,7 +12471,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H475" t="str" s="2">
-        <x:v>2022-12-21 17:57:32</x:v>
+        <x:v>2022-12-21 17:35:23</x:v>
       </x:c>
     </x:row>
     <x:row r="476">
@@ -12497,7 +12497,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H476" t="str" s="2">
-        <x:v>2022-12-24 08:20:33</x:v>
+        <x:v>2022-12-24 08:24:33</x:v>
       </x:c>
     </x:row>
     <x:row r="477">
@@ -12523,7 +12523,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H477" t="str" s="2">
-        <x:v>2022-12-24 17:53:51</x:v>
+        <x:v>2022-12-24 17:32:16</x:v>
       </x:c>
     </x:row>
     <x:row r="478">
@@ -12549,7 +12549,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H478" t="str" s="2">
-        <x:v>2022-12-27 08:25:17</x:v>
+        <x:v>2022-12-27 08:22:46</x:v>
       </x:c>
     </x:row>
     <x:row r="479">
@@ -12575,7 +12575,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H479" t="str" s="2">
-        <x:v>2022-12-27 20:56:08</x:v>
+        <x:v>2022-12-27 20:33:05</x:v>
       </x:c>
     </x:row>
     <x:row r="480">
@@ -12601,7 +12601,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H480" t="str" s="2">
-        <x:v>2022-12-01 08:23:38</x:v>
+        <x:v>2022-12-01 08:24:55</x:v>
       </x:c>
     </x:row>
     <x:row r="481">
@@ -12627,7 +12627,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H481" t="str" s="2">
-        <x:v>2022-12-01 20:55:59</x:v>
+        <x:v>2022-12-01 20:31:20</x:v>
       </x:c>
     </x:row>
     <x:row r="482">
@@ -12653,7 +12653,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H482" t="str" s="2">
-        <x:v>2022-12-03 08:28:35</x:v>
+        <x:v>2022-12-03 08:21:20</x:v>
       </x:c>
     </x:row>
     <x:row r="483">
@@ -12679,7 +12679,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H483" t="str" s="2">
-        <x:v>2022-12-03 21:02:48</x:v>
+        <x:v>2022-12-03 20:32:46</x:v>
       </x:c>
     </x:row>
     <x:row r="484">
@@ -12705,7 +12705,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H484" t="str" s="2">
-        <x:v>2022-12-04 08:27:20</x:v>
+        <x:v>2022-12-04 08:24:09</x:v>
       </x:c>
     </x:row>
     <x:row r="485">
@@ -12731,7 +12731,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H485" t="str" s="2">
-        <x:v>2022-12-04 21:01:35</x:v>
+        <x:v>2022-12-04 20:31:59</x:v>
       </x:c>
     </x:row>
     <x:row r="486">
@@ -12757,7 +12757,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H486" t="str" s="2">
-        <x:v>2022-12-05 08:23:10</x:v>
+        <x:v>2022-12-05 08:21:50</x:v>
       </x:c>
     </x:row>
     <x:row r="487">
@@ -12783,7 +12783,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H487" t="str" s="2">
-        <x:v>2022-12-05 17:53:47</x:v>
+        <x:v>2022-12-05 17:33:29</x:v>
       </x:c>
     </x:row>
     <x:row r="488">
@@ -12809,7 +12809,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H488" t="str" s="2">
-        <x:v>2022-12-06 08:28:49</x:v>
+        <x:v>2022-12-06 08:24:33</x:v>
       </x:c>
     </x:row>
     <x:row r="489">
@@ -12835,7 +12835,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H489" t="str" s="2">
-        <x:v>2022-12-06 18:03:02</x:v>
+        <x:v>2022-12-06 17:33:26</x:v>
       </x:c>
     </x:row>
     <x:row r="490">
@@ -12861,7 +12861,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H490" t="str" s="2">
-        <x:v>2022-12-07 08:27:38</x:v>
+        <x:v>2022-12-07 08:26:22</x:v>
       </x:c>
     </x:row>
     <x:row r="491">
@@ -12887,7 +12887,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H491" t="str" s="2">
-        <x:v>2022-12-07 20:57:45</x:v>
+        <x:v>2022-12-07 20:35:48</x:v>
       </x:c>
     </x:row>
     <x:row r="492">
@@ -12913,7 +12913,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H492" t="str" s="2">
-        <x:v>2022-12-08 08:28:41</x:v>
+        <x:v>2022-12-08 08:21:42</x:v>
       </x:c>
     </x:row>
     <x:row r="493">
@@ -12939,7 +12939,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H493" t="str" s="2">
-        <x:v>2022-12-08 21:01:22</x:v>
+        <x:v>2022-12-08 20:38:48</x:v>
       </x:c>
     </x:row>
     <x:row r="494">
@@ -12965,7 +12965,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H494" t="str" s="2">
-        <x:v>2022-12-09 08:23:01</x:v>
+        <x:v>2022-12-09 08:25:51</x:v>
       </x:c>
     </x:row>
     <x:row r="495">
@@ -12991,7 +12991,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H495" t="str" s="2">
-        <x:v>2022-12-09 17:57:32</x:v>
+        <x:v>2022-12-09 17:35:28</x:v>
       </x:c>
     </x:row>
     <x:row r="496">
@@ -13017,7 +13017,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H496" t="str" s="2">
-        <x:v>2022-12-10 08:27:36</x:v>
+        <x:v>2022-12-10 08:24:20</x:v>
       </x:c>
     </x:row>
     <x:row r="497">
@@ -13043,7 +13043,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H497" t="str" s="2">
-        <x:v>2022-12-10 18:02:12</x:v>
+        <x:v>2022-12-10 17:32:16</x:v>
       </x:c>
     </x:row>
     <x:row r="498">
@@ -13069,7 +13069,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H498" t="str" s="2">
-        <x:v>2022-12-12 08:23:54</x:v>
+        <x:v>2022-12-12 08:24:51</x:v>
       </x:c>
     </x:row>
     <x:row r="499">
@@ -13095,7 +13095,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H499" t="str" s="2">
-        <x:v>2022-12-12 17:54:44</x:v>
+        <x:v>2022-12-12 17:31:20</x:v>
       </x:c>
     </x:row>
     <x:row r="500">
@@ -13121,7 +13121,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H500" t="str" s="2">
-        <x:v>2022-12-13 08:25:09</x:v>
+        <x:v>2022-12-13 08:22:52</x:v>
       </x:c>
     </x:row>
     <x:row r="501">
@@ -13147,7 +13147,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H501" t="str" s="2">
-        <x:v>2022-12-13 20:58:25</x:v>
+        <x:v>2022-12-13 20:33:46</x:v>
       </x:c>
     </x:row>
     <x:row r="502">
@@ -13173,7 +13173,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H502" t="str" s="2">
-        <x:v>2022-12-14 08:27:22</x:v>
+        <x:v>2022-12-14 08:26:02</x:v>
       </x:c>
     </x:row>
     <x:row r="503">
@@ -13199,7 +13199,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H503" t="str" s="2">
-        <x:v>2022-12-14 20:59:22</x:v>
+        <x:v>2022-12-14 20:31:14</x:v>
       </x:c>
     </x:row>
     <x:row r="504">
@@ -13225,7 +13225,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H504" t="str" s="2">
-        <x:v>2022-12-15 08:20:19</x:v>
+        <x:v>2022-12-15 08:21:26</x:v>
       </x:c>
     </x:row>
     <x:row r="505">
@@ -13251,7 +13251,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H505" t="str" s="2">
-        <x:v>2022-12-15 20:51:48</x:v>
+        <x:v>2022-12-15 20:43:12</x:v>
       </x:c>
     </x:row>
     <x:row r="506">
@@ -13277,7 +13277,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H506" t="str" s="2">
-        <x:v>2022-12-16 08:22:07</x:v>
+        <x:v>2022-12-16 08:27:06</x:v>
       </x:c>
     </x:row>
     <x:row r="507">
@@ -13303,7 +13303,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H507" t="str" s="2">
-        <x:v>2022-12-16 20:55:57</x:v>
+        <x:v>2022-12-16 20:36:41</x:v>
       </x:c>
     </x:row>
     <x:row r="508">
@@ -13329,7 +13329,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H508" t="str" s="2">
-        <x:v>2022-12-17 08:27:12</x:v>
+        <x:v>2022-12-17 08:28:58</x:v>
       </x:c>
     </x:row>
     <x:row r="509">
@@ -13355,7 +13355,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H509" t="str" s="2">
-        <x:v>2022-12-17 21:00:41</x:v>
+        <x:v>2022-12-17 20:42:22</x:v>
       </x:c>
     </x:row>
     <x:row r="510">
@@ -13381,7 +13381,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H510" t="str" s="2">
-        <x:v>2022-12-19 08:27:45</x:v>
+        <x:v>2022-12-19 08:21:49</x:v>
       </x:c>
     </x:row>
     <x:row r="511">
@@ -13407,7 +13407,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H511" t="str" s="2">
-        <x:v>2022-12-19 20:58:32</x:v>
+        <x:v>2022-12-19 20:44:09</x:v>
       </x:c>
     </x:row>
     <x:row r="512">
@@ -13433,7 +13433,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H512" t="str" s="2">
-        <x:v>2022-12-20 08:22:34</x:v>
+        <x:v>2022-12-20 08:26:49</x:v>
       </x:c>
     </x:row>
     <x:row r="513">
@@ -13459,7 +13459,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H513" t="str" s="2">
-        <x:v>2022-12-20 20:55:00</x:v>
+        <x:v>2022-12-20 20:33:11</x:v>
       </x:c>
     </x:row>
     <x:row r="514">
@@ -13485,7 +13485,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H514" t="str" s="2">
-        <x:v>2022-12-21 08:27:49</x:v>
+        <x:v>2022-12-21 08:27:18</x:v>
       </x:c>
     </x:row>
     <x:row r="515">
@@ -13511,7 +13511,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H515" t="str" s="2">
-        <x:v>2022-12-21 18:00:39</x:v>
+        <x:v>2022-12-21 17:34:06</x:v>
       </x:c>
     </x:row>
     <x:row r="516">
@@ -13537,7 +13537,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H516" t="str" s="2">
-        <x:v>2022-12-24 08:27:27</x:v>
+        <x:v>2022-12-24 08:22:17</x:v>
       </x:c>
     </x:row>
     <x:row r="517">
@@ -13563,7 +13563,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H517" t="str" s="2">
-        <x:v>2022-12-24 17:59:40</x:v>
+        <x:v>2022-12-24 17:34:08</x:v>
       </x:c>
     </x:row>
     <x:row r="518">
@@ -13589,7 +13589,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H518" t="str" s="2">
-        <x:v>2022-12-27 08:27:20</x:v>
+        <x:v>2022-12-27 08:23:27</x:v>
       </x:c>
     </x:row>
     <x:row r="519">
@@ -13615,7 +13615,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H519" t="str" s="2">
-        <x:v>2022-12-27 21:01:50</x:v>
+        <x:v>2022-12-27 20:41:03</x:v>
       </x:c>
     </x:row>
     <x:row r="520">
@@ -13641,7 +13641,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H520" t="str" s="2">
-        <x:v>2022-12-01 08:20:20</x:v>
+        <x:v>2022-12-01 08:25:36</x:v>
       </x:c>
     </x:row>
     <x:row r="521">
@@ -13667,7 +13667,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H521" t="str" s="2">
-        <x:v>2022-12-01 17:52:47</x:v>
+        <x:v>2022-12-01 17:31:31</x:v>
       </x:c>
     </x:row>
     <x:row r="522">
@@ -13693,7 +13693,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H522" t="str" s="2">
-        <x:v>2022-12-02 08:20:33</x:v>
+        <x:v>2022-12-02 08:21:05</x:v>
       </x:c>
     </x:row>
     <x:row r="523">
@@ -13719,7 +13719,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H523" t="str" s="2">
-        <x:v>2022-12-02 17:51:30</x:v>
+        <x:v>2022-12-02 17:33:12</x:v>
       </x:c>
     </x:row>
     <x:row r="524">
@@ -13745,7 +13745,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H524" t="str" s="2">
-        <x:v>2022-12-03 08:21:54</x:v>
+        <x:v>2022-12-03 08:21:42</x:v>
       </x:c>
     </x:row>
     <x:row r="525">
@@ -13771,7 +13771,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H525" t="str" s="2">
-        <x:v>2022-12-03 20:55:44</x:v>
+        <x:v>2022-12-03 20:33:54</x:v>
       </x:c>
     </x:row>
     <x:row r="526">
@@ -13797,7 +13797,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H526" t="str" s="2">
-        <x:v>2022-12-04 08:21:38</x:v>
+        <x:v>2022-12-04 08:26:36</x:v>
       </x:c>
     </x:row>
     <x:row r="527">
@@ -13823,7 +13823,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H527" t="str" s="2">
-        <x:v>2022-12-04 17:51:40</x:v>
+        <x:v>2022-12-04 17:31:25</x:v>
       </x:c>
     </x:row>
     <x:row r="528">
@@ -13849,7 +13849,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H528" t="str" s="2">
-        <x:v>2022-12-05 08:26:40</x:v>
+        <x:v>2022-12-05 08:27:06</x:v>
       </x:c>
     </x:row>
     <x:row r="529">
@@ -13875,7 +13875,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H529" t="str" s="2">
-        <x:v>2022-12-05 17:59:44</x:v>
+        <x:v>2022-12-05 17:34:02</x:v>
       </x:c>
     </x:row>
     <x:row r="530">
@@ -13901,7 +13901,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H530" t="str" s="2">
-        <x:v>2022-12-06 08:27:43</x:v>
+        <x:v>2022-12-06 08:24:22</x:v>
       </x:c>
     </x:row>
     <x:row r="531">
@@ -13927,7 +13927,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H531" t="str" s="2">
-        <x:v>2022-12-06 20:57:58</x:v>
+        <x:v>2022-12-06 20:38:38</x:v>
       </x:c>
     </x:row>
     <x:row r="532">
@@ -13953,7 +13953,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H532" t="str" s="2">
-        <x:v>2022-12-07 08:25:28</x:v>
+        <x:v>2022-12-07 08:23:40</x:v>
       </x:c>
     </x:row>
     <x:row r="533">
@@ -13979,7 +13979,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H533" t="str" s="2">
-        <x:v>2022-12-07 20:56:15</x:v>
+        <x:v>2022-12-07 20:40:27</x:v>
       </x:c>
     </x:row>
     <x:row r="534">
@@ -14005,7 +14005,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H534" t="str" s="2">
-        <x:v>2022-12-08 08:22:16</x:v>
+        <x:v>2022-12-08 08:20:19</x:v>
       </x:c>
     </x:row>
     <x:row r="535">
@@ -14031,7 +14031,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H535" t="str" s="2">
-        <x:v>2022-12-08 20:54:56</x:v>
+        <x:v>2022-12-08 20:43:42</x:v>
       </x:c>
     </x:row>
     <x:row r="536">
@@ -14057,7 +14057,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H536" t="str" s="2">
-        <x:v>2022-12-09 08:25:29</x:v>
+        <x:v>2022-12-09 08:20:10</x:v>
       </x:c>
     </x:row>
     <x:row r="537">
@@ -14083,7 +14083,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H537" t="str" s="2">
-        <x:v>2022-12-09 17:56:36</x:v>
+        <x:v>2022-12-09 17:34:11</x:v>
       </x:c>
     </x:row>
     <x:row r="538">
@@ -14109,7 +14109,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H538" t="str" s="2">
-        <x:v>2022-12-10 08:24:36</x:v>
+        <x:v>2022-12-10 08:27:38</x:v>
       </x:c>
     </x:row>
     <x:row r="539">
@@ -14135,7 +14135,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H539" t="str" s="2">
-        <x:v>2022-12-10 20:54:39</x:v>
+        <x:v>2022-12-10 20:41:14</x:v>
       </x:c>
     </x:row>
     <x:row r="540">
@@ -14161,7 +14161,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H540" t="str" s="2">
-        <x:v>2022-12-12 08:24:42</x:v>
+        <x:v>2022-12-12 08:20:08</x:v>
       </x:c>
     </x:row>
     <x:row r="541">
@@ -14187,7 +14187,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H541" t="str" s="2">
-        <x:v>2022-12-12 20:56:20</x:v>
+        <x:v>2022-12-12 20:44:54</x:v>
       </x:c>
     </x:row>
     <x:row r="542">
@@ -14213,7 +14213,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H542" t="str" s="2">
-        <x:v>2022-12-13 08:25:33</x:v>
+        <x:v>2022-12-13 08:20:44</x:v>
       </x:c>
     </x:row>
     <x:row r="543">
@@ -14239,7 +14239,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H543" t="str" s="2">
-        <x:v>2022-12-13 20:59:37</x:v>
+        <x:v>2022-12-13 20:36:24</x:v>
       </x:c>
     </x:row>
     <x:row r="544">
@@ -14265,7 +14265,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H544" t="str" s="2">
-        <x:v>2022-12-14 08:23:57</x:v>
+        <x:v>2022-12-14 08:23:13</x:v>
       </x:c>
     </x:row>
     <x:row r="545">
@@ -14291,7 +14291,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H545" t="str" s="2">
-        <x:v>2022-12-14 17:57:25</x:v>
+        <x:v>2022-12-14 17:33:36</x:v>
       </x:c>
     </x:row>
     <x:row r="546">
@@ -14317,7 +14317,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H546" t="str" s="2">
-        <x:v>2022-12-15 08:27:39</x:v>
+        <x:v>2022-12-15 08:27:48</x:v>
       </x:c>
     </x:row>
     <x:row r="547">
@@ -14343,7 +14343,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H547" t="str" s="2">
-        <x:v>2022-12-15 21:00:27</x:v>
+        <x:v>2022-12-15 20:31:01</x:v>
       </x:c>
     </x:row>
     <x:row r="548">
@@ -14369,7 +14369,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H548" t="str" s="2">
-        <x:v>2022-12-16 08:24:18</x:v>
+        <x:v>2022-12-16 08:23:08</x:v>
       </x:c>
     </x:row>
     <x:row r="549">
@@ -14395,7 +14395,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H549" t="str" s="2">
-        <x:v>2022-12-16 20:58:41</x:v>
+        <x:v>2022-12-16 20:41:55</x:v>
       </x:c>
     </x:row>
     <x:row r="550">
@@ -14421,7 +14421,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H550" t="str" s="2">
-        <x:v>2022-12-17 08:21:14</x:v>
+        <x:v>2022-12-17 08:21:26</x:v>
       </x:c>
     </x:row>
     <x:row r="551">
@@ -14447,7 +14447,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H551" t="str" s="2">
-        <x:v>2022-12-17 20:52:14</x:v>
+        <x:v>2022-12-17 20:42:58</x:v>
       </x:c>
     </x:row>
     <x:row r="552">
@@ -14473,7 +14473,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H552" t="str" s="2">
-        <x:v>2022-12-19 08:25:56</x:v>
+        <x:v>2022-12-19 08:27:01</x:v>
       </x:c>
     </x:row>
     <x:row r="553">
@@ -14499,7 +14499,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H553" t="str" s="2">
-        <x:v>2022-12-19 20:56:09</x:v>
+        <x:v>2022-12-19 20:43:12</x:v>
       </x:c>
     </x:row>
     <x:row r="554">
@@ -14525,7 +14525,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H554" t="str" s="2">
-        <x:v>2022-12-20 08:26:19</x:v>
+        <x:v>2022-12-20 08:25:56</x:v>
       </x:c>
     </x:row>
     <x:row r="555">
@@ -14551,7 +14551,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H555" t="str" s="2">
-        <x:v>2022-12-20 21:00:03</x:v>
+        <x:v>2022-12-20 20:41:50</x:v>
       </x:c>
     </x:row>
     <x:row r="556">
@@ -14577,7 +14577,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H556" t="str" s="2">
-        <x:v>2022-12-21 08:27:35</x:v>
+        <x:v>2022-12-21 08:21:06</x:v>
       </x:c>
     </x:row>
     <x:row r="557">
@@ -14603,7 +14603,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H557" t="str" s="2">
-        <x:v>2022-12-21 17:57:42</x:v>
+        <x:v>2022-12-21 17:33:22</x:v>
       </x:c>
     </x:row>
     <x:row r="558">
@@ -14629,7 +14629,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H558" t="str" s="2">
-        <x:v>2022-12-23 08:23:03</x:v>
+        <x:v>2022-12-23 08:21:38</x:v>
       </x:c>
     </x:row>
     <x:row r="559">
@@ -14655,7 +14655,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H559" t="str" s="2">
-        <x:v>2022-12-23 17:56:28</x:v>
+        <x:v>2022-12-23 17:34:12</x:v>
       </x:c>
     </x:row>
     <x:row r="560">
@@ -14681,7 +14681,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H560" t="str" s="2">
-        <x:v>2022-12-24 08:23:38</x:v>
+        <x:v>2022-12-24 08:28:40</x:v>
       </x:c>
     </x:row>
     <x:row r="561">
@@ -14707,7 +14707,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H561" t="str" s="2">
-        <x:v>2022-12-24 17:55:47</x:v>
+        <x:v>2022-12-24 17:31:11</x:v>
       </x:c>
     </x:row>
     <x:row r="562">
@@ -14733,7 +14733,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H562" t="str" s="2">
-        <x:v>2022-12-26 08:22:32</x:v>
+        <x:v>2022-12-26 08:25:30</x:v>
       </x:c>
     </x:row>
     <x:row r="563">
@@ -14759,7 +14759,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H563" t="str" s="2">
-        <x:v>2022-12-26 20:53:33</x:v>
+        <x:v>2022-12-26 20:42:43</x:v>
       </x:c>
     </x:row>
     <x:row r="564">
@@ -14785,7 +14785,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H564" t="str" s="2">
-        <x:v>2022-12-27 08:27:33</x:v>
+        <x:v>2022-12-27 08:22:39</x:v>
       </x:c>
     </x:row>
     <x:row r="565">
@@ -14811,7 +14811,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H565" t="str" s="2">
-        <x:v>2022-12-27 20:59:19</x:v>
+        <x:v>2022-12-27 20:33:13</x:v>
       </x:c>
     </x:row>
     <x:row r="566">
@@ -14837,7 +14837,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H566" t="str" s="2">
-        <x:v>2022-12-01 08:25:24</x:v>
+        <x:v>2022-12-01 08:24:32</x:v>
       </x:c>
     </x:row>
     <x:row r="567">
@@ -14863,7 +14863,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H567" t="str" s="2">
-        <x:v>2022-12-01 17:56:39</x:v>
+        <x:v>2022-12-01 17:32:24</x:v>
       </x:c>
     </x:row>
     <x:row r="568">
@@ -14889,7 +14889,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H568" t="str" s="2">
-        <x:v>2022-12-02 08:24:44</x:v>
+        <x:v>2022-12-02 08:21:01</x:v>
       </x:c>
     </x:row>
     <x:row r="569">
@@ -14915,7 +14915,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H569" t="str" s="2">
-        <x:v>2022-12-02 17:59:34</x:v>
+        <x:v>2022-12-02 17:35:03</x:v>
       </x:c>
     </x:row>
     <x:row r="570">
@@ -14941,7 +14941,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H570" t="str" s="2">
-        <x:v>2022-12-03 08:24:04</x:v>
+        <x:v>2022-12-03 08:26:30</x:v>
       </x:c>
     </x:row>
     <x:row r="571">
@@ -14967,7 +14967,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H571" t="str" s="2">
-        <x:v>2022-12-03 20:55:20</x:v>
+        <x:v>2022-12-03 20:38:22</x:v>
       </x:c>
     </x:row>
     <x:row r="572">
@@ -14993,7 +14993,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H572" t="str" s="2">
-        <x:v>2022-12-04 08:22:25</x:v>
+        <x:v>2022-12-04 08:25:17</x:v>
       </x:c>
     </x:row>
     <x:row r="573">
@@ -15019,7 +15019,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H573" t="str" s="2">
-        <x:v>2022-12-04 17:55:11</x:v>
+        <x:v>2022-12-04 17:32:18</x:v>
       </x:c>
     </x:row>
     <x:row r="574">
@@ -15045,7 +15045,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H574" t="str" s="2">
-        <x:v>2022-12-05 08:24:03</x:v>
+        <x:v>2022-12-05 08:26:01</x:v>
       </x:c>
     </x:row>
     <x:row r="575">
@@ -15071,7 +15071,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H575" t="str" s="2">
-        <x:v>2022-12-05 17:54:49</x:v>
+        <x:v>2022-12-05 17:35:08</x:v>
       </x:c>
     </x:row>
     <x:row r="576">
@@ -15097,7 +15097,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H576" t="str" s="2">
-        <x:v>2022-12-06 08:22:36</x:v>
+        <x:v>2022-12-06 08:22:28</x:v>
       </x:c>
     </x:row>
     <x:row r="577">
@@ -15123,7 +15123,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H577" t="str" s="2">
-        <x:v>2022-12-06 20:56:17</x:v>
+        <x:v>2022-12-06 20:38:21</x:v>
       </x:c>
     </x:row>
     <x:row r="578">
@@ -15149,7 +15149,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H578" t="str" s="2">
-        <x:v>2022-12-07 08:22:32</x:v>
+        <x:v>2022-12-07 08:22:47</x:v>
       </x:c>
     </x:row>
     <x:row r="579">
@@ -15175,7 +15175,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H579" t="str" s="2">
-        <x:v>2022-12-07 20:53:26</x:v>
+        <x:v>2022-12-07 20:44:02</x:v>
       </x:c>
     </x:row>
     <x:row r="580">
@@ -15201,7 +15201,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H580" t="str" s="2">
-        <x:v>2022-12-08 08:24:30</x:v>
+        <x:v>2022-12-08 08:25:55</x:v>
       </x:c>
     </x:row>
     <x:row r="581">
@@ -15227,7 +15227,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H581" t="str" s="2">
-        <x:v>2022-12-08 20:55:24</x:v>
+        <x:v>2022-12-08 20:31:28</x:v>
       </x:c>
     </x:row>
     <x:row r="582">
@@ -15253,7 +15253,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H582" t="str" s="2">
-        <x:v>2022-12-09 08:27:16</x:v>
+        <x:v>2022-12-09 08:27:49</x:v>
       </x:c>
     </x:row>
     <x:row r="583">
@@ -15279,7 +15279,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H583" t="str" s="2">
-        <x:v>2022-12-09 17:59:40</x:v>
+        <x:v>2022-12-09 17:32:05</x:v>
       </x:c>
     </x:row>
     <x:row r="584">
@@ -15305,7 +15305,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H584" t="str" s="2">
-        <x:v>2022-12-10 08:20:11</x:v>
+        <x:v>2022-12-10 08:25:35</x:v>
       </x:c>
     </x:row>
     <x:row r="585">
@@ -15331,7 +15331,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H585" t="str" s="2">
-        <x:v>2022-12-10 20:54:05</x:v>
+        <x:v>2022-12-10 20:32:12</x:v>
       </x:c>
     </x:row>
     <x:row r="586">
@@ -15357,7 +15357,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H586" t="str" s="2">
-        <x:v>2022-12-12 08:22:50</x:v>
+        <x:v>2022-12-12 08:23:35</x:v>
       </x:c>
     </x:row>
     <x:row r="587">
@@ -15383,7 +15383,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H587" t="str" s="2">
-        <x:v>2022-12-12 20:54:44</x:v>
+        <x:v>2022-12-12 20:31:03</x:v>
       </x:c>
     </x:row>
     <x:row r="588">
@@ -15409,7 +15409,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H588" t="str" s="2">
-        <x:v>2022-12-13 08:22:53</x:v>
+        <x:v>2022-12-13 08:23:46</x:v>
       </x:c>
     </x:row>
     <x:row r="589">
@@ -15435,7 +15435,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H589" t="str" s="2">
-        <x:v>2022-12-13 20:56:31</x:v>
+        <x:v>2022-12-13 20:43:34</x:v>
       </x:c>
     </x:row>
     <x:row r="590">
@@ -15461,7 +15461,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H590" t="str" s="2">
-        <x:v>2022-12-14 08:24:18</x:v>
+        <x:v>2022-12-14 08:24:38</x:v>
       </x:c>
     </x:row>
     <x:row r="591">
@@ -15487,7 +15487,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H591" t="str" s="2">
-        <x:v>2022-12-14 20:54:29</x:v>
+        <x:v>2022-12-14 20:37:36</x:v>
       </x:c>
     </x:row>
     <x:row r="592">
@@ -15513,7 +15513,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H592" t="str" s="2">
-        <x:v>2022-12-15 08:22:39</x:v>
+        <x:v>2022-12-15 08:27:29</x:v>
       </x:c>
     </x:row>
     <x:row r="593">
@@ -15539,7 +15539,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H593" t="str" s="2">
-        <x:v>2022-12-15 20:56:55</x:v>
+        <x:v>2022-12-15 20:37:12</x:v>
       </x:c>
     </x:row>
     <x:row r="594">
@@ -15565,7 +15565,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H594" t="str" s="2">
-        <x:v>2022-12-16 08:24:20</x:v>
+        <x:v>2022-12-16 08:23:29</x:v>
       </x:c>
     </x:row>
     <x:row r="595">
@@ -15591,7 +15591,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H595" t="str" s="2">
-        <x:v>2022-12-16 20:55:10</x:v>
+        <x:v>2022-12-16 20:43:14</x:v>
       </x:c>
     </x:row>
     <x:row r="596">
@@ -15617,7 +15617,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H596" t="str" s="2">
-        <x:v>2022-12-17 08:24:06</x:v>
+        <x:v>2022-12-17 08:25:18</x:v>
       </x:c>
     </x:row>
     <x:row r="597">
@@ -15643,7 +15643,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H597" t="str" s="2">
-        <x:v>2022-12-17 20:56:46</x:v>
+        <x:v>2022-12-17 20:33:47</x:v>
       </x:c>
     </x:row>
     <x:row r="598">
@@ -15669,7 +15669,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H598" t="str" s="2">
-        <x:v>2022-12-19 08:20:34</x:v>
+        <x:v>2022-12-19 08:26:18</x:v>
       </x:c>
     </x:row>
     <x:row r="599">
@@ -15695,7 +15695,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H599" t="str" s="2">
-        <x:v>2022-12-19 20:50:34</x:v>
+        <x:v>2022-12-19 20:44:40</x:v>
       </x:c>
     </x:row>
     <x:row r="600">
@@ -15721,7 +15721,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H600" t="str" s="2">
-        <x:v>2022-12-20 08:26:21</x:v>
+        <x:v>2022-12-20 08:20:51</x:v>
       </x:c>
     </x:row>
     <x:row r="601">
@@ -15747,7 +15747,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H601" t="str" s="2">
-        <x:v>2022-12-20 21:00:47</x:v>
+        <x:v>2022-12-20 20:44:28</x:v>
       </x:c>
     </x:row>
     <x:row r="602">
@@ -15773,7 +15773,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H602" t="str" s="2">
-        <x:v>2022-12-21 08:25:52</x:v>
+        <x:v>2022-12-21 08:27:46</x:v>
       </x:c>
     </x:row>
     <x:row r="603">
@@ -15799,7 +15799,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H603" t="str" s="2">
-        <x:v>2022-12-21 17:57:08</x:v>
+        <x:v>2022-12-21 17:33:11</x:v>
       </x:c>
     </x:row>
     <x:row r="604">
@@ -15825,7 +15825,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H604" t="str" s="2">
-        <x:v>2022-12-23 08:21:56</x:v>
+        <x:v>2022-12-23 08:20:37</x:v>
       </x:c>
     </x:row>
     <x:row r="605">
@@ -15851,7 +15851,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H605" t="str" s="2">
-        <x:v>2022-12-23 17:56:41</x:v>
+        <x:v>2022-12-23 17:32:25</x:v>
       </x:c>
     </x:row>
     <x:row r="606">
@@ -15877,7 +15877,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H606" t="str" s="2">
-        <x:v>2022-12-24 08:20:16</x:v>
+        <x:v>2022-12-24 08:23:24</x:v>
       </x:c>
     </x:row>
     <x:row r="607">
@@ -15903,7 +15903,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H607" t="str" s="2">
-        <x:v>2022-12-24 17:51:52</x:v>
+        <x:v>2022-12-24 17:35:05</x:v>
       </x:c>
     </x:row>
     <x:row r="608">
@@ -15929,7 +15929,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H608" t="str" s="2">
-        <x:v>2022-12-26 08:24:30</x:v>
+        <x:v>2022-12-26 08:23:44</x:v>
       </x:c>
     </x:row>
     <x:row r="609">
@@ -15955,7 +15955,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H609" t="str" s="2">
-        <x:v>2022-12-26 20:55:13</x:v>
+        <x:v>2022-12-26 20:31:07</x:v>
       </x:c>
     </x:row>
     <x:row r="610">
@@ -15981,7 +15981,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H610" t="str" s="2">
-        <x:v>2022-12-27 08:23:24</x:v>
+        <x:v>2022-12-27 08:22:44</x:v>
       </x:c>
     </x:row>
     <x:row r="611">
@@ -16007,7 +16007,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H611" t="str" s="2">
-        <x:v>2022-12-27 20:53:26</x:v>
+        <x:v>2022-12-27 20:32:42</x:v>
       </x:c>
     </x:row>
     <x:row r="612">
@@ -16033,7 +16033,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H612" t="str" s="2">
-        <x:v>2022-12-01 08:23:36</x:v>
+        <x:v>2022-12-01 08:20:11</x:v>
       </x:c>
     </x:row>
     <x:row r="613">
@@ -16059,7 +16059,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H613" t="str" s="2">
-        <x:v>2022-12-01 20:55:46</x:v>
+        <x:v>2022-12-01 20:33:31</x:v>
       </x:c>
     </x:row>
     <x:row r="614">
@@ -16085,7 +16085,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H614" t="str" s="2">
-        <x:v>2022-12-02 08:21:06</x:v>
+        <x:v>2022-12-02 08:22:31</x:v>
       </x:c>
     </x:row>
     <x:row r="615">
@@ -16111,7 +16111,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H615" t="str" s="2">
-        <x:v>2022-12-02 17:53:15</x:v>
+        <x:v>2022-12-02 17:32:18</x:v>
       </x:c>
     </x:row>
     <x:row r="616">
@@ -16137,7 +16137,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H616" t="str" s="2">
-        <x:v>2022-12-03 08:24:13</x:v>
+        <x:v>2022-12-03 08:25:53</x:v>
       </x:c>
     </x:row>
     <x:row r="617">
@@ -16163,7 +16163,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H617" t="str" s="2">
-        <x:v>2022-12-03 17:56:32</x:v>
+        <x:v>2022-12-03 17:32:13</x:v>
       </x:c>
     </x:row>
     <x:row r="618">
@@ -16189,7 +16189,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H618" t="str" s="2">
-        <x:v>2022-12-04 08:22:25</x:v>
+        <x:v>2022-12-04 08:24:05</x:v>
       </x:c>
     </x:row>
     <x:row r="619">
@@ -16215,7 +16215,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H619" t="str" s="2">
-        <x:v>2022-12-04 20:53:19</x:v>
+        <x:v>2022-12-04 20:43:04</x:v>
       </x:c>
     </x:row>
     <x:row r="620">
@@ -16241,7 +16241,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H620" t="str" s="2">
-        <x:v>2022-12-05 08:27:20</x:v>
+        <x:v>2022-12-05 08:25:36</x:v>
       </x:c>
     </x:row>
     <x:row r="621">
@@ -16267,7 +16267,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H621" t="str" s="2">
-        <x:v>2022-12-05 18:02:15</x:v>
+        <x:v>2022-12-05 17:35:20</x:v>
       </x:c>
     </x:row>
     <x:row r="622">
@@ -16293,7 +16293,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H622" t="str" s="2">
-        <x:v>2022-12-06 08:21:07</x:v>
+        <x:v>2022-12-06 08:25:40</x:v>
       </x:c>
     </x:row>
     <x:row r="623">
@@ -16319,7 +16319,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H623" t="str" s="2">
-        <x:v>2022-12-06 20:54:52</x:v>
+        <x:v>2022-12-06 20:40:55</x:v>
       </x:c>
     </x:row>
     <x:row r="624">
@@ -16345,7 +16345,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H624" t="str" s="2">
-        <x:v>2022-12-07 08:22:20</x:v>
+        <x:v>2022-12-07 08:28:44</x:v>
       </x:c>
     </x:row>
     <x:row r="625">
@@ -16371,7 +16371,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H625" t="str" s="2">
-        <x:v>2022-12-07 20:53:03</x:v>
+        <x:v>2022-12-07 20:43:03</x:v>
       </x:c>
     </x:row>
     <x:row r="626">
@@ -16397,7 +16397,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H626" t="str" s="2">
-        <x:v>2022-12-08 08:22:43</x:v>
+        <x:v>2022-12-08 08:28:47</x:v>
       </x:c>
     </x:row>
     <x:row r="627">
@@ -16423,7 +16423,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H627" t="str" s="2">
-        <x:v>2022-12-08 20:55:11</x:v>
+        <x:v>2022-12-08 20:42:24</x:v>
       </x:c>
     </x:row>
     <x:row r="628">
@@ -16449,7 +16449,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H628" t="str" s="2">
-        <x:v>2022-12-09 08:27:18</x:v>
+        <x:v>2022-12-09 08:20:31</x:v>
       </x:c>
     </x:row>
     <x:row r="629">
@@ -16475,7 +16475,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H629" t="str" s="2">
-        <x:v>2022-12-09 18:00:10</x:v>
+        <x:v>2022-12-09 17:33:00</x:v>
       </x:c>
     </x:row>
     <x:row r="630">
@@ -16501,7 +16501,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H630" t="str" s="2">
-        <x:v>2022-12-10 08:22:30</x:v>
+        <x:v>2022-12-10 08:20:29</x:v>
       </x:c>
     </x:row>
     <x:row r="631">
@@ -16527,7 +16527,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H631" t="str" s="2">
-        <x:v>2022-12-10 20:52:47</x:v>
+        <x:v>2022-12-10 20:32:20</x:v>
       </x:c>
     </x:row>
     <x:row r="632">
@@ -16553,7 +16553,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H632" t="str" s="2">
-        <x:v>2022-12-12 08:26:40</x:v>
+        <x:v>2022-12-12 08:23:32</x:v>
       </x:c>
     </x:row>
     <x:row r="633">
@@ -16579,7 +16579,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H633" t="str" s="2">
-        <x:v>2022-12-12 21:01:03</x:v>
+        <x:v>2022-12-12 20:41:53</x:v>
       </x:c>
     </x:row>
     <x:row r="634">
@@ -16605,7 +16605,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H634" t="str" s="2">
-        <x:v>2022-12-13 08:28:51</x:v>
+        <x:v>2022-12-13 08:20:03</x:v>
       </x:c>
     </x:row>
     <x:row r="635">
@@ -16631,7 +16631,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H635" t="str" s="2">
-        <x:v>2022-12-13 21:02:10</x:v>
+        <x:v>2022-12-13 20:34:45</x:v>
       </x:c>
     </x:row>
     <x:row r="636">
@@ -16657,7 +16657,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H636" t="str" s="2">
-        <x:v>2022-12-14 08:27:13</x:v>
+        <x:v>2022-12-14 08:25:56</x:v>
       </x:c>
     </x:row>
     <x:row r="637">
@@ -16683,7 +16683,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H637" t="str" s="2">
-        <x:v>2022-12-14 17:57:26</x:v>
+        <x:v>2022-12-14 17:31:39</x:v>
       </x:c>
     </x:row>
     <x:row r="638">
@@ -16709,7 +16709,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H638" t="str" s="2">
-        <x:v>2022-12-15 08:23:16</x:v>
+        <x:v>2022-12-15 08:25:55</x:v>
       </x:c>
     </x:row>
     <x:row r="639">
@@ -16735,7 +16735,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H639" t="str" s="2">
-        <x:v>2022-12-15 20:55:52</x:v>
+        <x:v>2022-12-15 20:36:18</x:v>
       </x:c>
     </x:row>
     <x:row r="640">
@@ -16761,7 +16761,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H640" t="str" s="2">
-        <x:v>2022-12-16 08:28:02</x:v>
+        <x:v>2022-12-16 08:28:23</x:v>
       </x:c>
     </x:row>
     <x:row r="641">
@@ -16787,7 +16787,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H641" t="str" s="2">
-        <x:v>2022-12-16 21:01:55</x:v>
+        <x:v>2022-12-16 20:31:09</x:v>
       </x:c>
     </x:row>
     <x:row r="642">
@@ -16813,7 +16813,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H642" t="str" s="2">
-        <x:v>2022-12-17 08:22:23</x:v>
+        <x:v>2022-12-17 08:22:55</x:v>
       </x:c>
     </x:row>
     <x:row r="643">
@@ -16839,7 +16839,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H643" t="str" s="2">
-        <x:v>2022-12-17 20:54:53</x:v>
+        <x:v>2022-12-17 20:44:17</x:v>
       </x:c>
     </x:row>
     <x:row r="644">
@@ -16865,7 +16865,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H644" t="str" s="2">
-        <x:v>2022-12-19 08:21:27</x:v>
+        <x:v>2022-12-19 08:28:10</x:v>
       </x:c>
     </x:row>
     <x:row r="645">
@@ -16891,7 +16891,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H645" t="str" s="2">
-        <x:v>2022-12-19 20:55:31</x:v>
+        <x:v>2022-12-19 20:32:54</x:v>
       </x:c>
     </x:row>
     <x:row r="646">
@@ -16917,7 +16917,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H646" t="str" s="2">
-        <x:v>2022-12-20 08:22:44</x:v>
+        <x:v>2022-12-20 08:28:01</x:v>
       </x:c>
     </x:row>
     <x:row r="647">
@@ -16943,7 +16943,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H647" t="str" s="2">
-        <x:v>2022-12-20 20:57:11</x:v>
+        <x:v>2022-12-20 20:35:09</x:v>
       </x:c>
     </x:row>
     <x:row r="648">
@@ -16969,7 +16969,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H648" t="str" s="2">
-        <x:v>2022-12-21 08:23:45</x:v>
+        <x:v>2022-12-21 08:25:49</x:v>
       </x:c>
     </x:row>
     <x:row r="649">
@@ -16995,7 +16995,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H649" t="str" s="2">
-        <x:v>2022-12-21 17:55:36</x:v>
+        <x:v>2022-12-21 17:35:06</x:v>
       </x:c>
     </x:row>
     <x:row r="650">
@@ -17021,7 +17021,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H650" t="str" s="2">
-        <x:v>2022-12-23 08:22:26</x:v>
+        <x:v>2022-12-23 08:21:26</x:v>
       </x:c>
     </x:row>
     <x:row r="651">
@@ -17047,7 +17047,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H651" t="str" s="2">
-        <x:v>2022-12-23 17:52:35</x:v>
+        <x:v>2022-12-23 17:31:06</x:v>
       </x:c>
     </x:row>
     <x:row r="652">
@@ -17073,7 +17073,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H652" t="str" s="2">
-        <x:v>2022-12-24 08:26:45</x:v>
+        <x:v>2022-12-24 08:21:08</x:v>
       </x:c>
     </x:row>
     <x:row r="653">
@@ -17099,7 +17099,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H653" t="str" s="2">
-        <x:v>2022-12-24 17:58:02</x:v>
+        <x:v>2022-12-24 17:33:34</x:v>
       </x:c>
     </x:row>
     <x:row r="654">
@@ -17125,7 +17125,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H654" t="str" s="2">
-        <x:v>2022-12-26 08:22:07</x:v>
+        <x:v>2022-12-26 08:22:22</x:v>
       </x:c>
     </x:row>
     <x:row r="655">
@@ -17151,7 +17151,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H655" t="str" s="2">
-        <x:v>2022-12-26 20:54:08</x:v>
+        <x:v>2022-12-26 20:40:04</x:v>
       </x:c>
     </x:row>
     <x:row r="656">
@@ -17177,7 +17177,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H656" t="str" s="2">
-        <x:v>2022-12-27 08:22:41</x:v>
+        <x:v>2022-12-27 08:28:20</x:v>
       </x:c>
     </x:row>
     <x:row r="657">
@@ -17203,7 +17203,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H657" t="str" s="2">
-        <x:v>2022-12-27 17:57:05</x:v>
+        <x:v>2022-12-27 17:31:20</x:v>
       </x:c>
     </x:row>
     <x:row r="658">
@@ -17229,7 +17229,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H658" t="str" s="2">
-        <x:v>2022-12-01 08:26:17</x:v>
+        <x:v>2022-12-01 08:24:47</x:v>
       </x:c>
     </x:row>
     <x:row r="659">
@@ -17255,7 +17255,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H659" t="str" s="2">
-        <x:v>2022-12-01 20:56:29</x:v>
+        <x:v>2022-12-01 20:32:49</x:v>
       </x:c>
     </x:row>
     <x:row r="660">
@@ -17281,7 +17281,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H660" t="str" s="2">
-        <x:v>2022-12-02 08:22:03</x:v>
+        <x:v>2022-12-02 08:23:03</x:v>
       </x:c>
     </x:row>
     <x:row r="661">
@@ -17307,7 +17307,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H661" t="str" s="2">
-        <x:v>2022-12-02 17:55:12</x:v>
+        <x:v>2022-12-02 17:34:30</x:v>
       </x:c>
     </x:row>
     <x:row r="662">
@@ -17333,7 +17333,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H662" t="str" s="2">
-        <x:v>2022-12-03 08:24:21</x:v>
+        <x:v>2022-12-03 08:26:34</x:v>
       </x:c>
     </x:row>
     <x:row r="663">
@@ -17359,7 +17359,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H663" t="str" s="2">
-        <x:v>2022-12-03 17:55:13</x:v>
+        <x:v>2022-12-03 17:33:19</x:v>
       </x:c>
     </x:row>
     <x:row r="664">
@@ -17385,7 +17385,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H664" t="str" s="2">
-        <x:v>2022-12-04 08:20:11</x:v>
+        <x:v>2022-12-04 08:28:40</x:v>
       </x:c>
     </x:row>
     <x:row r="665">
@@ -17411,7 +17411,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H665" t="str" s="2">
-        <x:v>2022-12-04 20:52:03</x:v>
+        <x:v>2022-12-04 20:39:09</x:v>
       </x:c>
     </x:row>
     <x:row r="666">
@@ -17437,7 +17437,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H666" t="str" s="2">
-        <x:v>2022-12-05 08:26:46</x:v>
+        <x:v>2022-12-05 08:24:43</x:v>
       </x:c>
     </x:row>
     <x:row r="667">
@@ -17463,7 +17463,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H667" t="str" s="2">
-        <x:v>2022-12-05 17:59:20</x:v>
+        <x:v>2022-12-05 17:34:02</x:v>
       </x:c>
     </x:row>
     <x:row r="668">
@@ -17489,7 +17489,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H668" t="str" s="2">
-        <x:v>2022-12-06 08:27:21</x:v>
+        <x:v>2022-12-06 08:20:39</x:v>
       </x:c>
     </x:row>
     <x:row r="669">
@@ -17515,7 +17515,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H669" t="str" s="2">
-        <x:v>2022-12-06 21:01:57</x:v>
+        <x:v>2022-12-06 20:40:39</x:v>
       </x:c>
     </x:row>
     <x:row r="670">
@@ -17541,7 +17541,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H670" t="str" s="2">
-        <x:v>2022-12-07 08:25:30</x:v>
+        <x:v>2022-12-07 08:27:49</x:v>
       </x:c>
     </x:row>
     <x:row r="671">
@@ -17567,7 +17567,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H671" t="str" s="2">
-        <x:v>2022-12-07 21:00:16</x:v>
+        <x:v>2022-12-07 20:33:54</x:v>
       </x:c>
     </x:row>
     <x:row r="672">
@@ -17593,7 +17593,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H672" t="str" s="2">
-        <x:v>2022-12-08 08:21:06</x:v>
+        <x:v>2022-12-08 08:24:55</x:v>
       </x:c>
     </x:row>
     <x:row r="673">
@@ -17619,7 +17619,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H673" t="str" s="2">
-        <x:v>2022-12-08 20:54:29</x:v>
+        <x:v>2022-12-08 20:38:39</x:v>
       </x:c>
     </x:row>
     <x:row r="674">
@@ -17645,7 +17645,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H674" t="str" s="2">
-        <x:v>2022-12-09 08:23:36</x:v>
+        <x:v>2022-12-09 08:22:40</x:v>
       </x:c>
     </x:row>
     <x:row r="675">
@@ -17671,7 +17671,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H675" t="str" s="2">
-        <x:v>2022-12-09 17:54:13</x:v>
+        <x:v>2022-12-09 17:33:13</x:v>
       </x:c>
     </x:row>
     <x:row r="676">
@@ -17697,7 +17697,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H676" t="str" s="2">
-        <x:v>2022-12-10 08:21:26</x:v>
+        <x:v>2022-12-10 08:21:08</x:v>
       </x:c>
     </x:row>
     <x:row r="677">
@@ -17723,7 +17723,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H677" t="str" s="2">
-        <x:v>2022-12-10 20:54:54</x:v>
+        <x:v>2022-12-10 20:32:50</x:v>
       </x:c>
     </x:row>
     <x:row r="678">
@@ -17749,7 +17749,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H678" t="str" s="2">
-        <x:v>2022-12-12 08:26:15</x:v>
+        <x:v>2022-12-12 08:28:18</x:v>
       </x:c>
     </x:row>
     <x:row r="679">
@@ -17775,7 +17775,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H679" t="str" s="2">
-        <x:v>2022-12-12 21:00:53</x:v>
+        <x:v>2022-12-12 20:32:48</x:v>
       </x:c>
     </x:row>
     <x:row r="680">
@@ -17801,7 +17801,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H680" t="str" s="2">
-        <x:v>2022-12-13 08:27:33</x:v>
+        <x:v>2022-12-13 08:26:12</x:v>
       </x:c>
     </x:row>
     <x:row r="681">
@@ -17827,7 +17827,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H681" t="str" s="2">
-        <x:v>2022-12-13 21:00:28</x:v>
+        <x:v>2022-12-13 20:41:31</x:v>
       </x:c>
     </x:row>
     <x:row r="682">
@@ -17853,7 +17853,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H682" t="str" s="2">
-        <x:v>2022-12-14 08:25:09</x:v>
+        <x:v>2022-12-14 08:27:20</x:v>
       </x:c>
     </x:row>
     <x:row r="683">
@@ -17879,7 +17879,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H683" t="str" s="2">
-        <x:v>2022-12-14 17:56:32</x:v>
+        <x:v>2022-12-14 17:32:22</x:v>
       </x:c>
     </x:row>
     <x:row r="684">
@@ -17905,7 +17905,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H684" t="str" s="2">
-        <x:v>2022-12-15 08:22:35</x:v>
+        <x:v>2022-12-15 08:20:09</x:v>
       </x:c>
     </x:row>
     <x:row r="685">
@@ -17931,7 +17931,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H685" t="str" s="2">
-        <x:v>2022-12-15 20:57:08</x:v>
+        <x:v>2022-12-15 20:40:14</x:v>
       </x:c>
     </x:row>
     <x:row r="686">
@@ -17957,7 +17957,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H686" t="str" s="2">
-        <x:v>2022-12-16 08:22:01</x:v>
+        <x:v>2022-12-16 08:28:41</x:v>
       </x:c>
     </x:row>
     <x:row r="687">
@@ -17983,7 +17983,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H687" t="str" s="2">
-        <x:v>2022-12-16 20:56:32</x:v>
+        <x:v>2022-12-16 20:35:00</x:v>
       </x:c>
     </x:row>
     <x:row r="688">
@@ -18009,7 +18009,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H688" t="str" s="2">
-        <x:v>2022-12-17 08:21:05</x:v>
+        <x:v>2022-12-17 08:22:31</x:v>
       </x:c>
     </x:row>
     <x:row r="689">
@@ -18035,7 +18035,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H689" t="str" s="2">
-        <x:v>2022-12-17 20:54:35</x:v>
+        <x:v>2022-12-17 20:33:20</x:v>
       </x:c>
     </x:row>
     <x:row r="690">
@@ -18061,7 +18061,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H690" t="str" s="2">
-        <x:v>2022-12-19 08:21:45</x:v>
+        <x:v>2022-12-19 08:24:07</x:v>
       </x:c>
     </x:row>
     <x:row r="691">
@@ -18087,7 +18087,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H691" t="str" s="2">
-        <x:v>2022-12-19 20:54:05</x:v>
+        <x:v>2022-12-19 20:39:52</x:v>
       </x:c>
     </x:row>
     <x:row r="692">
@@ -18113,7 +18113,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H692" t="str" s="2">
-        <x:v>2022-12-20 08:26:44</x:v>
+        <x:v>2022-12-20 08:21:09</x:v>
       </x:c>
     </x:row>
     <x:row r="693">
@@ -18139,7 +18139,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H693" t="str" s="2">
-        <x:v>2022-12-20 21:00:06</x:v>
+        <x:v>2022-12-20 20:43:45</x:v>
       </x:c>
     </x:row>
     <x:row r="694">
@@ -18165,7 +18165,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H694" t="str" s="2">
-        <x:v>2022-12-21 08:28:17</x:v>
+        <x:v>2022-12-21 08:21:13</x:v>
       </x:c>
     </x:row>
     <x:row r="695">
@@ -18191,7 +18191,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H695" t="str" s="2">
-        <x:v>2022-12-21 18:02:31</x:v>
+        <x:v>2022-12-21 17:32:04</x:v>
       </x:c>
     </x:row>
     <x:row r="696">
@@ -18217,7 +18217,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H696" t="str" s="2">
-        <x:v>2022-12-23 08:20:30</x:v>
+        <x:v>2022-12-23 08:22:20</x:v>
       </x:c>
     </x:row>
     <x:row r="697">
@@ -18243,7 +18243,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H697" t="str" s="2">
-        <x:v>2022-12-23 17:54:46</x:v>
+        <x:v>2022-12-23 17:31:21</x:v>
       </x:c>
     </x:row>
     <x:row r="698">
@@ -18269,7 +18269,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H698" t="str" s="2">
-        <x:v>2022-12-24 08:26:22</x:v>
+        <x:v>2022-12-24 08:23:42</x:v>
       </x:c>
     </x:row>
     <x:row r="699">
@@ -18295,7 +18295,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H699" t="str" s="2">
-        <x:v>2022-12-24 17:58:00</x:v>
+        <x:v>2022-12-24 17:31:09</x:v>
       </x:c>
     </x:row>
     <x:row r="700">
@@ -18321,7 +18321,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H700" t="str" s="2">
-        <x:v>2022-12-26 08:26:48</x:v>
+        <x:v>2022-12-26 08:27:30</x:v>
       </x:c>
     </x:row>
     <x:row r="701">
@@ -18347,7 +18347,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H701" t="str" s="2">
-        <x:v>2022-12-26 20:58:21</x:v>
+        <x:v>2022-12-26 20:40:41</x:v>
       </x:c>
     </x:row>
     <x:row r="702">
@@ -18373,7 +18373,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H702" t="str" s="2">
-        <x:v>2022-12-27 08:21:38</x:v>
+        <x:v>2022-12-27 08:21:32</x:v>
       </x:c>
     </x:row>
     <x:row r="703">
@@ -18399,7 +18399,7 @@
         <x:v>备件</x:v>
       </x:c>
       <x:c r="H703" t="str" s="2">
-        <x:v>2022-12-27 17:55:05</x:v>
+        <x:v>2022-12-27 17:32:33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
